--- a/testcase/Cheetah-TestCase.xlsx
+++ b/testcase/Cheetah-TestCase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>用例编号</t>
   </si>
@@ -257,7 +257,7 @@
     <t>text=127.0.0.3,等待时间=1</t>
   </si>
   <si>
-    <t>保存基础信息按钮</t>
+    <t>保存基本信息按钮</t>
   </si>
   <si>
     <t>127.0.0.3</t>
@@ -306,6 +306,36 @@
   </si>
   <si>
     <t>保存添加位置</t>
+  </si>
+  <si>
+    <t>PM_002</t>
+  </si>
+  <si>
+    <t>查看位置管理_634094</t>
+  </si>
+  <si>
+    <t>收缩图标</t>
+  </si>
+  <si>
+    <t>查找SPAN元素名称#Automation testing</t>
+  </si>
+  <si>
+    <t>PM_003</t>
+  </si>
+  <si>
+    <t>编辑位置_634096</t>
+  </si>
+  <si>
+    <t>Cheetah</t>
+  </si>
+  <si>
+    <t>查找SPAN元素名称#Cheetah</t>
+  </si>
+  <si>
+    <t>PM_004</t>
+  </si>
+  <si>
+    <t>编辑位置_634097</t>
   </si>
 </sst>
 </file>
@@ -313,12 +343,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -360,10 +390,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,71 +427,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -460,8 +450,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,35 +533,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -543,175 +573,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,9 +770,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,46 +836,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,166 +865,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,25 +1018,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1367,12 +1397,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.8"/>
@@ -2253,94 +2283,172 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" ht="17.6" spans="1:8">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+    <row r="34" ht="18" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" ht="17.6" spans="1:8">
+    <row r="35" ht="18" spans="1:8">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" ht="17.6" spans="1:8">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" ht="18" spans="1:8">
+      <c r="A36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" ht="17.6" spans="1:8">
+    <row r="37" ht="18" spans="1:8">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" ht="17.6" spans="1:8">
+      <c r="G37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" ht="18" spans="1:8">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" ht="17.6" spans="1:8">
+    <row r="39" ht="18" spans="1:8">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" ht="17.6" spans="1:8">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="1:8">
+      <c r="A40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" ht="17.6" spans="1:8">
+    <row r="41" ht="18" spans="1:8">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" ht="17.6" spans="1:8">
+    <row r="42" ht="18" spans="1:8">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" ht="17.6" spans="1:8">
@@ -2594,9 +2702,9 @@
       <c r="H67" s="4"/>
     </row>
     <row r="68" ht="17.6" spans="1:8">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -2833,19 +2941,9 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" ht="17.6" spans="1:8">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E34:E1048576" errorStyle="information"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E43:E1048576" errorStyle="information"/>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="G12 G17 G27"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcase/Cheetah-TestCase.xlsx
+++ b/testcase/Cheetah-TestCase.xlsx
@@ -10,6 +10,7 @@
     <sheet name="cheetah" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cheetah!$C$1:$C$90</definedName>
     <definedName name="百度搜索页面">#REF!</definedName>
     <definedName name="关键字">#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>用例编号</t>
   </si>
@@ -206,7 +207,7 @@
     <t>IP分组管理页面</t>
   </si>
   <si>
-    <t>添加IP分组</t>
+    <t>添加按钮</t>
   </si>
   <si>
     <t>IP名称#16</t>
@@ -326,16 +327,28 @@
     <t>编辑位置_634096</t>
   </si>
   <si>
-    <t>Cheetah</t>
-  </si>
-  <si>
-    <t>查找SPAN元素名称#Cheetah</t>
+    <t>Cheetah_autotesting</t>
+  </si>
+  <si>
+    <t>查找SPAN元素名称#Cheetah_autotesting</t>
+  </si>
+  <si>
+    <t>*Cheetah</t>
   </si>
   <si>
     <t>PM_004</t>
   </si>
   <si>
-    <t>编辑位置_634097</t>
+    <t>删除位置_634097</t>
+  </si>
+  <si>
+    <t>SP_001</t>
+  </si>
+  <si>
+    <t>注册仿真点_634104</t>
+  </si>
+  <si>
+    <t>ParentNode=系统配置,ChildNode=仿真点管理</t>
   </si>
 </sst>
 </file>
@@ -1397,12 +1410,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.8"/>
@@ -2151,7 +2164,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" ht="18" spans="1:8">
+    <row r="27" ht="18" spans="1:13">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -2175,6 +2188,9 @@
       </c>
       <c r="H27" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="M27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:8">
@@ -2394,15 +2410,15 @@
         <v>102</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" ht="18" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>71</v>
@@ -2427,11 +2443,11 @@
         <v>29</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -2447,38 +2463,70 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" ht="17.6" spans="1:8">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" ht="17.6" spans="1:8">
+    <row r="43" ht="18" spans="1:8">
+      <c r="A43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" ht="18" spans="1:8">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" ht="17.6" spans="1:8">
+      <c r="D44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" ht="18" spans="1:8">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H45" s="4"/>
     </row>
     <row r="46" ht="17.6" spans="1:8">
@@ -2692,9 +2740,9 @@
       <c r="H66" s="4"/>
     </row>
     <row r="67" ht="17.6" spans="1:8">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -2931,20 +2979,11 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" ht="17.6" spans="1:8">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
   </sheetData>
+  <autoFilter ref="C1:C90"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E43:E1048576" errorStyle="information"/>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12 G17 G27"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E46:E1048576" errorStyle="information"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12 G17 G27 G43"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/testcase/Cheetah-TestCase.xlsx
+++ b/testcase/Cheetah-TestCase.xlsx
@@ -10,7 +10,7 @@
     <sheet name="cheetah" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cheetah!$C$1:$C$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cheetah!$M$1:$M$90</definedName>
     <definedName name="百度搜索页面">#REF!</definedName>
     <definedName name="关键字">#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>用例编号</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>ParentNode=系统配置,ChildNode=仿真点管理</t>
+  </si>
+  <si>
+    <t>IP名称#18</t>
+  </si>
+  <si>
+    <t>text=Automation testing,text1=&lt;Keys.TAB&gt;,text2=127.0.0.2</t>
   </si>
 </sst>
 </file>
@@ -358,10 +364,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -397,25 +403,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,83 +424,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,16 +452,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,6 +483,75 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -586,175 +592,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,68 +789,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,151 +825,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1413,9 +1419,9 @@
   <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.8"/>
@@ -2527,26 +2533,44 @@
       <c r="G45" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" ht="17.6" spans="1:8">
+      <c r="H45" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" ht="18" spans="1:8">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" ht="17.6" spans="1:8">
+      <c r="D46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" ht="18" spans="1:8">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H47" s="4"/>
     </row>
     <row r="48" ht="17.6" spans="1:8">
@@ -2980,9 +3004,8 @@
       <c r="H90" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C90"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E46:E1048576" errorStyle="information"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E48:E1048576" errorStyle="information"/>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="G12 G17 G27 G43"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcase/Cheetah-TestCase.xlsx
+++ b/testcase/Cheetah-TestCase.xlsx
@@ -10,7 +10,6 @@
     <sheet name="cheetah" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cheetah!$M$1:$M$90</definedName>
     <definedName name="百度搜索页面">#REF!</definedName>
     <definedName name="关键字">#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>用例编号</t>
   </si>
@@ -207,7 +206,7 @@
     <t>IP分组管理页面</t>
   </si>
   <si>
-    <t>添加按钮</t>
+    <t>添加IP分组</t>
   </si>
   <si>
     <t>IP名称#16</t>
@@ -327,34 +326,16 @@
     <t>编辑位置_634096</t>
   </si>
   <si>
-    <t>Cheetah_autotesting</t>
-  </si>
-  <si>
-    <t>查找SPAN元素名称#Cheetah_autotesting</t>
-  </si>
-  <si>
-    <t>*Cheetah</t>
+    <t>Cheetah</t>
+  </si>
+  <si>
+    <t>查找SPAN元素名称#Cheetah</t>
   </si>
   <si>
     <t>PM_004</t>
   </si>
   <si>
-    <t>删除位置_634097</t>
-  </si>
-  <si>
-    <t>SP_001</t>
-  </si>
-  <si>
-    <t>注册仿真点_634104</t>
-  </si>
-  <si>
-    <t>ParentNode=系统配置,ChildNode=仿真点管理</t>
-  </si>
-  <si>
-    <t>IP名称#18</t>
-  </si>
-  <si>
-    <t>text=Automation testing,text1=&lt;Keys.TAB&gt;,text2=127.0.0.2</t>
+    <t>编辑位置_634097</t>
   </si>
 </sst>
 </file>
@@ -364,10 +345,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -403,16 +384,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,14 +414,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,25 +511,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,75 +533,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -592,6 +573,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -604,25 +633,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,133 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,9 +770,68 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,210 +865,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,12 +1397,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.8"/>
@@ -2170,7 +2151,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" ht="18" spans="1:13">
+    <row r="27" ht="18" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -2194,9 +2175,6 @@
       </c>
       <c r="H27" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="M27" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:8">
@@ -2416,15 +2394,15 @@
         <v>102</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" ht="18" spans="1:8">
       <c r="A40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>71</v>
@@ -2449,11 +2427,11 @@
         <v>29</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -2469,108 +2447,58 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" ht="18" spans="1:8">
-      <c r="A43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" ht="18" spans="1:8">
+    <row r="43" ht="17.6" spans="1:8">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" ht="17.6" spans="1:8">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" ht="18" spans="1:8">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" ht="17.6" spans="1:8">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" ht="18" spans="1:8">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" ht="17.6" spans="1:8">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" ht="18" spans="1:8">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" ht="17.6" spans="1:8">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" ht="17.6" spans="1:8">
@@ -2764,9 +2692,9 @@
       <c r="H66" s="4"/>
     </row>
     <row r="67" ht="17.6" spans="1:8">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -3003,10 +2931,20 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
+    <row r="91" ht="17.6" spans="1:8">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E48:E1048576" errorStyle="information"/>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12 G17 G27 G43"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E43:E1048576" errorStyle="information"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12 G17 G27"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/testcase/Cheetah-TestCase.xlsx
+++ b/testcase/Cheetah-TestCase.xlsx
@@ -10,6 +10,7 @@
     <sheet name="cheetah" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cheetah!$A$1:$P$56</definedName>
     <definedName name="百度搜索页面">#REF!</definedName>
     <definedName name="关键字">#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>用例编号</t>
   </si>
@@ -206,7 +207,7 @@
     <t>IP分组管理页面</t>
   </si>
   <si>
-    <t>添加IP分组</t>
+    <t>添加按钮</t>
   </si>
   <si>
     <t>IP名称#16</t>
@@ -227,7 +228,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>保存添加IP分组</t>
+    <t>保存按钮</t>
   </si>
   <si>
     <t>IPGM_002</t>
@@ -326,16 +327,61 @@
     <t>编辑位置_634096</t>
   </si>
   <si>
-    <t>Cheetah</t>
-  </si>
-  <si>
-    <t>查找SPAN元素名称#Cheetah</t>
+    <t>Cheetah_autotesting</t>
+  </si>
+  <si>
+    <t>查找SPAN元素名称#Cheetah_autotesting</t>
+  </si>
+  <si>
+    <t>*Cheetah</t>
   </si>
   <si>
     <t>PM_004</t>
   </si>
   <si>
-    <t>编辑位置_634097</t>
+    <t>删除位置_634097</t>
+  </si>
+  <si>
+    <t>SP_001</t>
+  </si>
+  <si>
+    <t>注册仿真点_634104</t>
+  </si>
+  <si>
+    <t>ParentNode=系统配置,ChildNode=仿真点管理</t>
+  </si>
+  <si>
+    <t>仿真点管理页面</t>
+  </si>
+  <si>
+    <t>注册仿真点#请输入名称</t>
+  </si>
+  <si>
+    <t>注册仿真点#请输入IP地址</t>
+  </si>
+  <si>
+    <t>127.0.0.2</t>
+  </si>
+  <si>
+    <t>SP_002</t>
+  </si>
+  <si>
+    <t>查看仿真点_634103</t>
+  </si>
+  <si>
+    <t>SP_003</t>
+  </si>
+  <si>
+    <t>编辑仿真点_634102</t>
+  </si>
+  <si>
+    <t>SP_004</t>
+  </si>
+  <si>
+    <t>删除仿真点_634105</t>
+  </si>
+  <si>
+    <t>查找DIV元素名称#Cheetah_autotesting</t>
   </si>
 </sst>
 </file>
@@ -343,12 +389,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -390,29 +436,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -427,24 +450,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,9 +490,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,16 +520,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,11 +542,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,16 +564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +619,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,13 +685,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,31 +763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,109 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +816,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -784,24 +848,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,175 +914,172 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,12 +1440,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:AL386"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.8"/>
@@ -1496,12 +1539,12 @@
       <c r="H2" s="4"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A3" s="3" t="s">
@@ -1530,12 +1573,12 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A4" s="3"/>
@@ -1554,14 +1597,14 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A5" s="3"/>
@@ -1580,14 +1623,14 @@
       <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A6" s="3"/>
@@ -1606,14 +1649,14 @@
       <c r="H6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A7" s="3" t="s">
@@ -1638,14 +1681,14 @@
         <v>43</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A8" s="3"/>
@@ -1662,14 +1705,14 @@
         <v>44</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A9" s="3" t="s">
@@ -1694,14 +1737,14 @@
         <v>49</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A10" s="3"/>
@@ -1718,14 +1761,14 @@
         <v>50</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A11" s="3"/>
@@ -1742,16 +1785,16 @@
         <v>51</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="18" spans="1:16">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="18" spans="1:38">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1776,16 +1819,38 @@
       <c r="H12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A13" s="3"/>
@@ -1806,14 +1871,14 @@
       <c r="H13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A14" s="3"/>
@@ -1834,14 +1899,14 @@
       <c r="H14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A15" s="3"/>
@@ -1860,14 +1925,14 @@
       <c r="H15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A16" s="3"/>
@@ -1886,14 +1951,14 @@
       <c r="H16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A17" s="3"/>
@@ -1910,14 +1975,14 @@
         <v>68</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A18" s="3" t="s">
@@ -1942,14 +2007,14 @@
       <c r="H18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A19" s="3" t="s">
@@ -1972,14 +2037,14 @@
         <v>72</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A20" s="3"/>
@@ -1998,14 +2063,14 @@
       <c r="H20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A21" s="3"/>
@@ -2022,14 +2087,14 @@
         <v>78</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A22" s="3"/>
@@ -2048,14 +2113,14 @@
       <c r="H22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A23" s="3" t="s">
@@ -2078,14 +2143,14 @@
         <v>72</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A24" s="3"/>
@@ -2102,14 +2167,14 @@
         <v>82</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="18" spans="1:16">
       <c r="A25" s="3"/>
@@ -2126,16 +2191,16 @@
         <v>83</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" ht="18" spans="1:8">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" ht="18" spans="1:16">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2150,8 +2215,16 @@
         <v>84</v>
       </c>
       <c r="H26" s="4"/>
-    </row>
-    <row r="27" ht="18" spans="1:8">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" ht="18" spans="1:16">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -2176,8 +2249,18 @@
       <c r="H27" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" ht="18" spans="1:8">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" ht="18" spans="1:16">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="3"/>
@@ -2196,8 +2279,16 @@
       <c r="H28" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" ht="18" spans="1:8">
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" ht="18" spans="1:16">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2214,8 +2305,16 @@
         <v>89</v>
       </c>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" ht="18" spans="1:8">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" ht="18" spans="1:16">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2232,8 +2331,16 @@
       <c r="H30" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" ht="18" spans="1:8">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" ht="18" spans="1:16">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2248,8 +2355,16 @@
         <v>91</v>
       </c>
       <c r="H31" s="4"/>
-    </row>
-    <row r="32" ht="18" spans="1:8">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" ht="18" spans="1:16">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2266,8 +2381,16 @@
       <c r="H32" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" ht="18" spans="1:8">
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" ht="18" spans="1:16">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2282,8 +2405,16 @@
         <v>94</v>
       </c>
       <c r="H33" s="4"/>
-    </row>
-    <row r="34" ht="18" spans="1:8">
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" ht="18" spans="1:16">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
@@ -2304,8 +2435,16 @@
         <v>97</v>
       </c>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" ht="18" spans="1:8">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" ht="18" spans="1:16">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2322,8 +2461,16 @@
       <c r="H35" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" ht="18" spans="1:8">
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" ht="18" spans="1:16">
       <c r="A36" s="3" t="s">
         <v>99</v>
       </c>
@@ -2344,8 +2491,16 @@
         <v>98</v>
       </c>
       <c r="H36" s="4"/>
-    </row>
-    <row r="37" ht="18" spans="1:8">
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" ht="18" spans="1:16">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2362,8 +2517,16 @@
       <c r="H37" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" ht="18" spans="1:8">
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" ht="18" spans="1:16">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2378,8 +2541,16 @@
         <v>78</v>
       </c>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" ht="18" spans="1:8">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" ht="18" spans="1:16">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2394,15 +2565,23 @@
         <v>102</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" ht="18" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+    </row>
+    <row r="40" ht="18" spans="1:16">
       <c r="A40" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>71</v>
@@ -2418,8 +2597,16 @@
         <v>102</v>
       </c>
       <c r="H40" s="4"/>
-    </row>
-    <row r="41" ht="18" spans="1:8">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" ht="18" spans="1:16">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2427,15 +2614,25 @@
         <v>29</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" ht="18" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" ht="18" spans="1:16">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2447,151 +2644,399 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" s="4"/>
-    </row>
-    <row r="43" ht="17.6" spans="1:8">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" ht="17.6" spans="1:8">
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" ht="18" spans="1:16">
+      <c r="A43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+    </row>
+    <row r="44" ht="18" spans="1:16">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" ht="17.6" spans="1:8">
+      <c r="D44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" ht="18" spans="1:16">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" ht="17.6" spans="1:8">
+      <c r="G45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" ht="18" spans="1:16">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" ht="17.6" spans="1:8">
+      <c r="D46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+    </row>
+    <row r="47" ht="18" spans="1:16">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" ht="17.6" spans="1:8">
+      <c r="G47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+    </row>
+    <row r="48" ht="18" spans="1:16">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H48" s="4"/>
-    </row>
-    <row r="49" ht="17.6" spans="1:8">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+    </row>
+    <row r="49" ht="18" spans="1:16">
+      <c r="A49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" ht="17.6" spans="1:8">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+    </row>
+    <row r="50" ht="18" spans="1:16">
+      <c r="A50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H50" s="4"/>
-    </row>
-    <row r="51" ht="17.6" spans="1:8">
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+    </row>
+    <row r="51" ht="18" spans="1:16">
       <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" ht="17.6" spans="1:8">
+      <c r="G51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+    </row>
+    <row r="52" ht="18" spans="1:16">
       <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H52" s="4"/>
-    </row>
-    <row r="53" ht="17.6" spans="1:8">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+    </row>
+    <row r="53" ht="18" spans="1:16">
+      <c r="A53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="H53" s="4"/>
-    </row>
-    <row r="54" ht="17.6" spans="1:8">
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+    </row>
+    <row r="54" ht="18" spans="1:16">
       <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="H54" s="4"/>
-    </row>
-    <row r="55" ht="17.6" spans="1:8">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" ht="18" spans="1:16">
       <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H55" s="4"/>
-    </row>
-    <row r="56" ht="17.6" spans="1:8">
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+    </row>
+    <row r="56" ht="18" spans="1:16">
       <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4">
+        <v>4</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="H56" s="4"/>
-    </row>
-    <row r="57" ht="17.6" spans="1:8">
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+    </row>
+    <row r="57" ht="17.6" spans="1:16">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2600,8 +3045,16 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-    </row>
-    <row r="58" ht="17.6" spans="1:8">
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+    </row>
+    <row r="58" ht="17.6" spans="1:16">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2610,8 +3063,16 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-    </row>
-    <row r="59" ht="17.6" spans="1:8">
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+    </row>
+    <row r="59" ht="17.6" spans="1:16">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2620,8 +3081,16 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-    </row>
-    <row r="60" ht="17.6" spans="1:8">
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+    </row>
+    <row r="60" ht="17.6" spans="1:16">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2630,8 +3099,16 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-    </row>
-    <row r="61" ht="17.6" spans="1:8">
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+    </row>
+    <row r="61" ht="17.6" spans="1:16">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2640,8 +3117,16 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-    </row>
-    <row r="62" ht="17.6" spans="1:8">
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+    </row>
+    <row r="62" ht="17.6" spans="1:16">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2650,8 +3135,16 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-    </row>
-    <row r="63" ht="17.6" spans="1:8">
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+    </row>
+    <row r="63" ht="17.6" spans="1:16">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2660,8 +3153,16 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-    </row>
-    <row r="64" ht="17.6" spans="1:8">
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+    </row>
+    <row r="64" ht="17.6" spans="1:16">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2670,8 +3171,16 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-    </row>
-    <row r="65" ht="17.6" spans="1:8">
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+    </row>
+    <row r="65" ht="17.6" spans="1:16">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2680,8 +3189,16 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-    </row>
-    <row r="66" ht="17.6" spans="1:8">
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+    </row>
+    <row r="66" ht="17.6" spans="1:16">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2690,8 +3207,16 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" ht="17.6" spans="1:8">
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+    </row>
+    <row r="67" ht="17.6" spans="1:16">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2700,8 +3225,16 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" ht="17.6" spans="1:8">
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+    </row>
+    <row r="68" ht="17.6" spans="1:16">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2710,8 +3243,16 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-    </row>
-    <row r="69" ht="17.6" spans="1:8">
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+    </row>
+    <row r="69" ht="17.6" spans="1:16">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2720,8 +3261,16 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-    </row>
-    <row r="70" ht="17.6" spans="1:8">
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+    </row>
+    <row r="70" ht="17.6" spans="1:16">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2730,8 +3279,16 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-    </row>
-    <row r="71" ht="17.6" spans="1:8">
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" ht="17.6" spans="1:16">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2740,8 +3297,16 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-    </row>
-    <row r="72" ht="17.6" spans="1:8">
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" ht="17.6" spans="1:16">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2750,8 +3315,16 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-    </row>
-    <row r="73" ht="17.6" spans="1:8">
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+    </row>
+    <row r="73" ht="17.6" spans="1:16">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2760,8 +3333,16 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-    </row>
-    <row r="74" ht="17.6" spans="1:8">
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+    </row>
+    <row r="74" ht="17.6" spans="1:16">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2770,8 +3351,16 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-    </row>
-    <row r="75" ht="17.6" spans="1:8">
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+    </row>
+    <row r="75" ht="17.6" spans="1:16">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2780,8 +3369,16 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-    </row>
-    <row r="76" ht="17.6" spans="1:8">
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+    </row>
+    <row r="76" ht="17.6" spans="1:16">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2790,8 +3387,16 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-    </row>
-    <row r="77" ht="17.6" spans="1:8">
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+    </row>
+    <row r="77" ht="17.6" spans="1:16">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2800,8 +3405,16 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-    </row>
-    <row r="78" ht="17.6" spans="1:8">
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+    </row>
+    <row r="78" ht="17.6" spans="1:16">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2810,8 +3423,16 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-    </row>
-    <row r="79" ht="17.6" spans="1:8">
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+    </row>
+    <row r="79" ht="17.6" spans="1:16">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2820,8 +3441,16 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-    </row>
-    <row r="80" ht="17.6" spans="1:8">
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="80" ht="17.6" spans="1:16">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2830,8 +3459,16 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-    </row>
-    <row r="81" ht="17.6" spans="1:8">
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+    </row>
+    <row r="81" ht="17.6" spans="1:16">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2840,8 +3477,16 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-    </row>
-    <row r="82" ht="17.6" spans="1:8">
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+    </row>
+    <row r="82" ht="17.6" spans="1:16">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2850,8 +3495,16 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-    </row>
-    <row r="83" ht="17.6" spans="1:8">
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+    </row>
+    <row r="83" ht="17.6" spans="1:16">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2860,8 +3513,16 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-    </row>
-    <row r="84" ht="17.6" spans="1:8">
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+    </row>
+    <row r="84" ht="17.6" spans="1:16">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2870,8 +3531,16 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-    </row>
-    <row r="85" ht="17.6" spans="1:8">
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+    </row>
+    <row r="85" ht="17.6" spans="1:16">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2880,8 +3549,16 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-    </row>
-    <row r="86" ht="17.6" spans="1:8">
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+    </row>
+    <row r="86" ht="17.6" spans="1:16">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2890,8 +3567,16 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-    </row>
-    <row r="87" ht="17.6" spans="1:8">
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+    </row>
+    <row r="87" ht="17.6" spans="1:16">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2900,8 +3585,16 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-    </row>
-    <row r="88" ht="17.6" spans="1:8">
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+    </row>
+    <row r="88" ht="17.6" spans="1:16">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2910,8 +3603,16 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-    </row>
-    <row r="89" ht="17.6" spans="1:8">
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+    </row>
+    <row r="89" ht="17.6" spans="1:16">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2920,8 +3621,16 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-    </row>
-    <row r="90" ht="17.6" spans="1:8">
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+    </row>
+    <row r="90" ht="17.6" spans="1:16">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2930,8 +3639,16 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-    </row>
-    <row r="91" ht="17.6" spans="1:8">
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" ht="17.6" spans="1:16">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2940,11 +3657,2970 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+    </row>
+    <row r="92" ht="17.6" spans="9:16">
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+    </row>
+    <row r="93" ht="17.6" spans="9:16">
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+    </row>
+    <row r="94" ht="17.6" spans="9:16">
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+    </row>
+    <row r="95" ht="17.6" spans="9:16">
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+    </row>
+    <row r="96" ht="17.6" spans="9:16">
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+    </row>
+    <row r="97" ht="17.6" spans="9:16">
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+    </row>
+    <row r="98" ht="17.6" spans="9:16">
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+    </row>
+    <row r="99" ht="17.6" spans="9:16">
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+    </row>
+    <row r="100" ht="17.6" spans="9:16">
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+    </row>
+    <row r="101" ht="17.6" spans="9:16">
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+    </row>
+    <row r="102" ht="17.6" spans="9:16">
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+    </row>
+    <row r="103" ht="17.6" spans="9:16">
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+    </row>
+    <row r="104" ht="17.6" spans="9:16">
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+    </row>
+    <row r="105" ht="17.6" spans="9:16">
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+    </row>
+    <row r="106" ht="17.6" spans="9:16">
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+    </row>
+    <row r="107" ht="17.6" spans="9:16">
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+    </row>
+    <row r="108" ht="17.6" spans="9:16">
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+    </row>
+    <row r="109" ht="17.6" spans="9:16">
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+    </row>
+    <row r="110" ht="17.6" spans="9:16">
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+    </row>
+    <row r="111" ht="17.6" spans="9:16">
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+    </row>
+    <row r="112" ht="17.6" spans="9:16">
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+    </row>
+    <row r="113" ht="17.6" spans="9:16">
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+    </row>
+    <row r="114" ht="17.6" spans="9:16">
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+    </row>
+    <row r="115" ht="17.6" spans="9:16">
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+    </row>
+    <row r="116" ht="17.6" spans="9:16">
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+    </row>
+    <row r="117" ht="17.6" spans="9:16">
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+    </row>
+    <row r="118" ht="17.6" spans="9:16">
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+    </row>
+    <row r="119" ht="17.6" spans="9:16">
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+    </row>
+    <row r="120" ht="17.6" spans="9:16">
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+    </row>
+    <row r="121" ht="17.6" spans="9:16">
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+    </row>
+    <row r="122" ht="17.6" spans="9:16">
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+    </row>
+    <row r="123" ht="17.6" spans="9:16">
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+    </row>
+    <row r="124" ht="17.6" spans="9:16">
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+    </row>
+    <row r="125" ht="17.6" spans="9:16">
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+    </row>
+    <row r="126" ht="17.6" spans="9:16">
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+    </row>
+    <row r="127" ht="17.6" spans="9:16">
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+    </row>
+    <row r="128" ht="17.6" spans="9:16">
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+    </row>
+    <row r="129" ht="17.6" spans="9:16">
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+    </row>
+    <row r="130" ht="17.6" spans="9:16">
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+    </row>
+    <row r="131" ht="17.6" spans="9:16">
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7"/>
+    </row>
+    <row r="132" ht="17.6" spans="9:16">
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="7"/>
+      <c r="P132" s="7"/>
+    </row>
+    <row r="133" ht="17.6" spans="9:16">
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7"/>
+    </row>
+    <row r="134" ht="17.6" spans="9:16">
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+    </row>
+    <row r="135" ht="17.6" spans="9:16">
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+    </row>
+    <row r="136" ht="17.6" spans="9:16">
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+    </row>
+    <row r="137" ht="17.6" spans="9:16">
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+    </row>
+    <row r="138" ht="17.6" spans="9:16">
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+    </row>
+    <row r="139" ht="17.6" spans="9:16">
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7"/>
+    </row>
+    <row r="140" ht="17.6" spans="9:16">
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+    </row>
+    <row r="141" ht="17.6" spans="9:16">
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
+    </row>
+    <row r="142" ht="17.6" spans="9:16">
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+    </row>
+    <row r="143" ht="17.6" spans="9:16">
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
+    </row>
+    <row r="144" ht="17.6" spans="9:16">
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+    </row>
+    <row r="145" ht="17.6" spans="9:16">
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+    </row>
+    <row r="146" ht="17.6" spans="9:16">
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+    </row>
+    <row r="147" ht="17.6" spans="9:16">
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+    </row>
+    <row r="148" ht="17.6" spans="9:16">
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+    </row>
+    <row r="149" ht="17.6" spans="9:16">
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
+    </row>
+    <row r="150" ht="17.6" spans="9:16">
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
+    </row>
+    <row r="151" ht="17.6" spans="9:16">
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
+    </row>
+    <row r="152" ht="17.6" spans="9:16">
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
+    </row>
+    <row r="153" ht="17.6" spans="9:16">
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+    </row>
+    <row r="154" ht="17.6" spans="9:16">
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+    </row>
+    <row r="155" ht="17.6" spans="9:16">
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+    </row>
+    <row r="156" ht="17.6" spans="9:16">
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
+    </row>
+    <row r="157" ht="17.6" spans="9:16">
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
+    </row>
+    <row r="158" ht="17.6" spans="9:16">
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+    </row>
+    <row r="159" ht="17.6" spans="9:16">
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+    </row>
+    <row r="160" ht="17.6" spans="9:16">
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+    </row>
+    <row r="161" ht="17.6" spans="9:16">
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+    </row>
+    <row r="162" ht="17.6" spans="9:16">
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+    </row>
+    <row r="163" ht="17.6" spans="9:16">
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="7"/>
+      <c r="P163" s="7"/>
+    </row>
+    <row r="164" ht="17.6" spans="9:16">
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
+    </row>
+    <row r="165" ht="17.6" spans="9:16">
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="7"/>
+    </row>
+    <row r="166" ht="17.6" spans="9:16">
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
+      <c r="O166" s="7"/>
+      <c r="P166" s="7"/>
+    </row>
+    <row r="167" ht="17.6" spans="9:16">
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="7"/>
+    </row>
+    <row r="168" ht="17.6" spans="9:16">
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+    </row>
+    <row r="169" ht="17.6" spans="9:16">
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
+    </row>
+    <row r="170" ht="17.6" spans="9:16">
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+    </row>
+    <row r="171" ht="17.6" spans="9:16">
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7"/>
+    </row>
+    <row r="172" ht="17.6" spans="9:16">
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
+    </row>
+    <row r="173" ht="17.6" spans="9:16">
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="7"/>
+    </row>
+    <row r="174" ht="17.6" spans="9:16">
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
+    </row>
+    <row r="175" ht="17.6" spans="9:16">
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
+    </row>
+    <row r="176" ht="17.6" spans="9:16">
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+    </row>
+    <row r="177" ht="17.6" spans="9:16">
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
+    </row>
+    <row r="178" ht="17.6" spans="9:16">
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
+    </row>
+    <row r="179" ht="17.6" spans="9:16">
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="7"/>
+    </row>
+    <row r="180" ht="17.6" spans="9:16">
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+    </row>
+    <row r="181" ht="17.6" spans="9:16">
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="7"/>
+    </row>
+    <row r="182" ht="17.6" spans="9:16">
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
+    </row>
+    <row r="183" ht="17.6" spans="9:16">
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+      <c r="P183" s="7"/>
+    </row>
+    <row r="184" ht="17.6" spans="9:16">
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7"/>
+    </row>
+    <row r="185" ht="17.6" spans="9:16">
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7"/>
+    </row>
+    <row r="186" ht="17.6" spans="9:16">
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7"/>
+    </row>
+    <row r="187" ht="17.6" spans="9:16">
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
+      <c r="P187" s="7"/>
+    </row>
+    <row r="188" ht="17.6" spans="9:16">
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
+    </row>
+    <row r="189" ht="17.6" spans="9:16">
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
+    </row>
+    <row r="190" ht="17.6" spans="9:16">
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="7"/>
+    </row>
+    <row r="191" ht="17.6" spans="9:16">
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="7"/>
+    </row>
+    <row r="192" ht="17.6" spans="9:16">
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7"/>
+      <c r="P192" s="7"/>
+    </row>
+    <row r="193" ht="17.6" spans="9:16">
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
+      <c r="O193" s="7"/>
+      <c r="P193" s="7"/>
+    </row>
+    <row r="194" ht="17.6" spans="9:16">
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+      <c r="P194" s="7"/>
+    </row>
+    <row r="195" ht="17.6" spans="9:16">
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7"/>
+    </row>
+    <row r="196" ht="17.6" spans="9:16">
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
+    </row>
+    <row r="197" ht="17.6" spans="9:16">
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="7"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="7"/>
+      <c r="P197" s="7"/>
+    </row>
+    <row r="198" ht="17.6" spans="9:16">
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
+      <c r="M198" s="7"/>
+      <c r="N198" s="7"/>
+      <c r="O198" s="7"/>
+      <c r="P198" s="7"/>
+    </row>
+    <row r="199" ht="17.6" spans="9:16">
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="7"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7"/>
+      <c r="P199" s="7"/>
+    </row>
+    <row r="200" ht="17.6" spans="9:16">
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="7"/>
+      <c r="N200" s="7"/>
+      <c r="O200" s="7"/>
+      <c r="P200" s="7"/>
+    </row>
+    <row r="201" ht="17.6" spans="9:16">
+      <c r="I201" s="7"/>
+      <c r="J201" s="7"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="7"/>
+      <c r="N201" s="7"/>
+      <c r="O201" s="7"/>
+      <c r="P201" s="7"/>
+    </row>
+    <row r="202" ht="17.6" spans="9:16">
+      <c r="I202" s="7"/>
+      <c r="J202" s="7"/>
+      <c r="K202" s="7"/>
+      <c r="L202" s="7"/>
+      <c r="M202" s="7"/>
+      <c r="N202" s="7"/>
+      <c r="O202" s="7"/>
+      <c r="P202" s="7"/>
+    </row>
+    <row r="203" ht="17.6" spans="9:16">
+      <c r="I203" s="7"/>
+      <c r="J203" s="7"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="7"/>
+      <c r="M203" s="7"/>
+      <c r="N203" s="7"/>
+      <c r="O203" s="7"/>
+      <c r="P203" s="7"/>
+    </row>
+    <row r="204" ht="17.6" spans="9:16">
+      <c r="I204" s="7"/>
+      <c r="J204" s="7"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="7"/>
+      <c r="M204" s="7"/>
+      <c r="N204" s="7"/>
+      <c r="O204" s="7"/>
+      <c r="P204" s="7"/>
+    </row>
+    <row r="205" ht="17.6" spans="9:16">
+      <c r="I205" s="7"/>
+      <c r="J205" s="7"/>
+      <c r="K205" s="7"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="7"/>
+      <c r="N205" s="7"/>
+      <c r="O205" s="7"/>
+      <c r="P205" s="7"/>
+    </row>
+    <row r="206" ht="17.6" spans="9:16">
+      <c r="I206" s="7"/>
+      <c r="J206" s="7"/>
+      <c r="K206" s="7"/>
+      <c r="L206" s="7"/>
+      <c r="M206" s="7"/>
+      <c r="N206" s="7"/>
+      <c r="O206" s="7"/>
+      <c r="P206" s="7"/>
+    </row>
+    <row r="207" ht="17.6" spans="9:16">
+      <c r="I207" s="7"/>
+      <c r="J207" s="7"/>
+      <c r="K207" s="7"/>
+      <c r="L207" s="7"/>
+      <c r="M207" s="7"/>
+      <c r="N207" s="7"/>
+      <c r="O207" s="7"/>
+      <c r="P207" s="7"/>
+    </row>
+    <row r="208" ht="17.6" spans="9:16">
+      <c r="I208" s="7"/>
+      <c r="J208" s="7"/>
+      <c r="K208" s="7"/>
+      <c r="L208" s="7"/>
+      <c r="M208" s="7"/>
+      <c r="N208" s="7"/>
+      <c r="O208" s="7"/>
+      <c r="P208" s="7"/>
+    </row>
+    <row r="209" ht="17.6" spans="9:16">
+      <c r="I209" s="7"/>
+      <c r="J209" s="7"/>
+      <c r="K209" s="7"/>
+      <c r="L209" s="7"/>
+      <c r="M209" s="7"/>
+      <c r="N209" s="7"/>
+      <c r="O209" s="7"/>
+      <c r="P209" s="7"/>
+    </row>
+    <row r="210" ht="17.6" spans="9:16">
+      <c r="I210" s="7"/>
+      <c r="J210" s="7"/>
+      <c r="K210" s="7"/>
+      <c r="L210" s="7"/>
+      <c r="M210" s="7"/>
+      <c r="N210" s="7"/>
+      <c r="O210" s="7"/>
+      <c r="P210" s="7"/>
+    </row>
+    <row r="211" ht="17.6" spans="9:16">
+      <c r="I211" s="7"/>
+      <c r="J211" s="7"/>
+      <c r="K211" s="7"/>
+      <c r="L211" s="7"/>
+      <c r="M211" s="7"/>
+      <c r="N211" s="7"/>
+      <c r="O211" s="7"/>
+      <c r="P211" s="7"/>
+    </row>
+    <row r="212" ht="17.6" spans="9:16">
+      <c r="I212" s="7"/>
+      <c r="J212" s="7"/>
+      <c r="K212" s="7"/>
+      <c r="L212" s="7"/>
+      <c r="M212" s="7"/>
+      <c r="N212" s="7"/>
+      <c r="O212" s="7"/>
+      <c r="P212" s="7"/>
+    </row>
+    <row r="213" ht="17.6" spans="9:16">
+      <c r="I213" s="7"/>
+      <c r="J213" s="7"/>
+      <c r="K213" s="7"/>
+      <c r="L213" s="7"/>
+      <c r="M213" s="7"/>
+      <c r="N213" s="7"/>
+      <c r="O213" s="7"/>
+      <c r="P213" s="7"/>
+    </row>
+    <row r="214" ht="17.6" spans="9:16">
+      <c r="I214" s="7"/>
+      <c r="J214" s="7"/>
+      <c r="K214" s="7"/>
+      <c r="L214" s="7"/>
+      <c r="M214" s="7"/>
+      <c r="N214" s="7"/>
+      <c r="O214" s="7"/>
+      <c r="P214" s="7"/>
+    </row>
+    <row r="215" ht="17.6" spans="9:16">
+      <c r="I215" s="7"/>
+      <c r="J215" s="7"/>
+      <c r="K215" s="7"/>
+      <c r="L215" s="7"/>
+      <c r="M215" s="7"/>
+      <c r="N215" s="7"/>
+      <c r="O215" s="7"/>
+      <c r="P215" s="7"/>
+    </row>
+    <row r="216" ht="17.6" spans="9:16">
+      <c r="I216" s="7"/>
+      <c r="J216" s="7"/>
+      <c r="K216" s="7"/>
+      <c r="L216" s="7"/>
+      <c r="M216" s="7"/>
+      <c r="N216" s="7"/>
+      <c r="O216" s="7"/>
+      <c r="P216" s="7"/>
+    </row>
+    <row r="217" ht="17.6" spans="9:16">
+      <c r="I217" s="7"/>
+      <c r="J217" s="7"/>
+      <c r="K217" s="7"/>
+      <c r="L217" s="7"/>
+      <c r="M217" s="7"/>
+      <c r="N217" s="7"/>
+      <c r="O217" s="7"/>
+      <c r="P217" s="7"/>
+    </row>
+    <row r="218" ht="17.6" spans="9:16">
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="7"/>
+      <c r="L218" s="7"/>
+      <c r="M218" s="7"/>
+      <c r="N218" s="7"/>
+      <c r="O218" s="7"/>
+      <c r="P218" s="7"/>
+    </row>
+    <row r="219" ht="17.6" spans="9:16">
+      <c r="I219" s="7"/>
+      <c r="J219" s="7"/>
+      <c r="K219" s="7"/>
+      <c r="L219" s="7"/>
+      <c r="M219" s="7"/>
+      <c r="N219" s="7"/>
+      <c r="O219" s="7"/>
+      <c r="P219" s="7"/>
+    </row>
+    <row r="220" ht="17.6" spans="9:16">
+      <c r="I220" s="7"/>
+      <c r="J220" s="7"/>
+      <c r="K220" s="7"/>
+      <c r="L220" s="7"/>
+      <c r="M220" s="7"/>
+      <c r="N220" s="7"/>
+      <c r="O220" s="7"/>
+      <c r="P220" s="7"/>
+    </row>
+    <row r="221" ht="17.6" spans="9:16">
+      <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="7"/>
+      <c r="L221" s="7"/>
+      <c r="M221" s="7"/>
+      <c r="N221" s="7"/>
+      <c r="O221" s="7"/>
+      <c r="P221" s="7"/>
+    </row>
+    <row r="222" ht="17.6" spans="9:16">
+      <c r="I222" s="7"/>
+      <c r="J222" s="7"/>
+      <c r="K222" s="7"/>
+      <c r="L222" s="7"/>
+      <c r="M222" s="7"/>
+      <c r="N222" s="7"/>
+      <c r="O222" s="7"/>
+      <c r="P222" s="7"/>
+    </row>
+    <row r="223" ht="17.6" spans="9:16">
+      <c r="I223" s="7"/>
+      <c r="J223" s="7"/>
+      <c r="K223" s="7"/>
+      <c r="L223" s="7"/>
+      <c r="M223" s="7"/>
+      <c r="N223" s="7"/>
+      <c r="O223" s="7"/>
+      <c r="P223" s="7"/>
+    </row>
+    <row r="224" ht="17.6" spans="9:16">
+      <c r="I224" s="7"/>
+      <c r="J224" s="7"/>
+      <c r="K224" s="7"/>
+      <c r="L224" s="7"/>
+      <c r="M224" s="7"/>
+      <c r="N224" s="7"/>
+      <c r="O224" s="7"/>
+      <c r="P224" s="7"/>
+    </row>
+    <row r="225" ht="17.6" spans="9:16">
+      <c r="I225" s="7"/>
+      <c r="J225" s="7"/>
+      <c r="K225" s="7"/>
+      <c r="L225" s="7"/>
+      <c r="M225" s="7"/>
+      <c r="N225" s="7"/>
+      <c r="O225" s="7"/>
+      <c r="P225" s="7"/>
+    </row>
+    <row r="226" ht="17.6" spans="9:16">
+      <c r="I226" s="7"/>
+      <c r="J226" s="7"/>
+      <c r="K226" s="7"/>
+      <c r="L226" s="7"/>
+      <c r="M226" s="7"/>
+      <c r="N226" s="7"/>
+      <c r="O226" s="7"/>
+      <c r="P226" s="7"/>
+    </row>
+    <row r="227" ht="17.6" spans="9:16">
+      <c r="I227" s="7"/>
+      <c r="J227" s="7"/>
+      <c r="K227" s="7"/>
+      <c r="L227" s="7"/>
+      <c r="M227" s="7"/>
+      <c r="N227" s="7"/>
+      <c r="O227" s="7"/>
+      <c r="P227" s="7"/>
+    </row>
+    <row r="228" ht="17.6" spans="9:16">
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="7"/>
+      <c r="L228" s="7"/>
+      <c r="M228" s="7"/>
+      <c r="N228" s="7"/>
+      <c r="O228" s="7"/>
+      <c r="P228" s="7"/>
+    </row>
+    <row r="229" ht="17.6" spans="9:16">
+      <c r="I229" s="7"/>
+      <c r="J229" s="7"/>
+      <c r="K229" s="7"/>
+      <c r="L229" s="7"/>
+      <c r="M229" s="7"/>
+      <c r="N229" s="7"/>
+      <c r="O229" s="7"/>
+      <c r="P229" s="7"/>
+    </row>
+    <row r="230" ht="17.6" spans="9:16">
+      <c r="I230" s="7"/>
+      <c r="J230" s="7"/>
+      <c r="K230" s="7"/>
+      <c r="L230" s="7"/>
+      <c r="M230" s="7"/>
+      <c r="N230" s="7"/>
+      <c r="O230" s="7"/>
+      <c r="P230" s="7"/>
+    </row>
+    <row r="231" ht="17.6" spans="9:16">
+      <c r="I231" s="7"/>
+      <c r="J231" s="7"/>
+      <c r="K231" s="7"/>
+      <c r="L231" s="7"/>
+      <c r="M231" s="7"/>
+      <c r="N231" s="7"/>
+      <c r="O231" s="7"/>
+      <c r="P231" s="7"/>
+    </row>
+    <row r="232" ht="17.6" spans="9:16">
+      <c r="I232" s="7"/>
+      <c r="J232" s="7"/>
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
+      <c r="M232" s="7"/>
+      <c r="N232" s="7"/>
+      <c r="O232" s="7"/>
+      <c r="P232" s="7"/>
+    </row>
+    <row r="233" ht="17.6" spans="9:16">
+      <c r="I233" s="7"/>
+      <c r="J233" s="7"/>
+      <c r="K233" s="7"/>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7"/>
+      <c r="N233" s="7"/>
+      <c r="O233" s="7"/>
+      <c r="P233" s="7"/>
+    </row>
+    <row r="234" ht="17.6" spans="9:16">
+      <c r="I234" s="7"/>
+      <c r="J234" s="7"/>
+      <c r="K234" s="7"/>
+      <c r="L234" s="7"/>
+      <c r="M234" s="7"/>
+      <c r="N234" s="7"/>
+      <c r="O234" s="7"/>
+      <c r="P234" s="7"/>
+    </row>
+    <row r="235" ht="17.6" spans="9:16">
+      <c r="I235" s="7"/>
+      <c r="J235" s="7"/>
+      <c r="K235" s="7"/>
+      <c r="L235" s="7"/>
+      <c r="M235" s="7"/>
+      <c r="N235" s="7"/>
+      <c r="O235" s="7"/>
+      <c r="P235" s="7"/>
+    </row>
+    <row r="236" ht="17.6" spans="9:16">
+      <c r="I236" s="7"/>
+      <c r="J236" s="7"/>
+      <c r="K236" s="7"/>
+      <c r="L236" s="7"/>
+      <c r="M236" s="7"/>
+      <c r="N236" s="7"/>
+      <c r="O236" s="7"/>
+      <c r="P236" s="7"/>
+    </row>
+    <row r="237" ht="17.6" spans="9:16">
+      <c r="I237" s="7"/>
+      <c r="J237" s="7"/>
+      <c r="K237" s="7"/>
+      <c r="L237" s="7"/>
+      <c r="M237" s="7"/>
+      <c r="N237" s="7"/>
+      <c r="O237" s="7"/>
+      <c r="P237" s="7"/>
+    </row>
+    <row r="238" ht="17.6" spans="9:16">
+      <c r="I238" s="7"/>
+      <c r="J238" s="7"/>
+      <c r="K238" s="7"/>
+      <c r="L238" s="7"/>
+      <c r="M238" s="7"/>
+      <c r="N238" s="7"/>
+      <c r="O238" s="7"/>
+      <c r="P238" s="7"/>
+    </row>
+    <row r="239" ht="17.6" spans="9:16">
+      <c r="I239" s="7"/>
+      <c r="J239" s="7"/>
+      <c r="K239" s="7"/>
+      <c r="L239" s="7"/>
+      <c r="M239" s="7"/>
+      <c r="N239" s="7"/>
+      <c r="O239" s="7"/>
+      <c r="P239" s="7"/>
+    </row>
+    <row r="240" ht="17.6" spans="9:16">
+      <c r="I240" s="7"/>
+      <c r="J240" s="7"/>
+      <c r="K240" s="7"/>
+      <c r="L240" s="7"/>
+      <c r="M240" s="7"/>
+      <c r="N240" s="7"/>
+      <c r="O240" s="7"/>
+      <c r="P240" s="7"/>
+    </row>
+    <row r="241" ht="17.6" spans="9:16">
+      <c r="I241" s="7"/>
+      <c r="J241" s="7"/>
+      <c r="K241" s="7"/>
+      <c r="L241" s="7"/>
+      <c r="M241" s="7"/>
+      <c r="N241" s="7"/>
+      <c r="O241" s="7"/>
+      <c r="P241" s="7"/>
+    </row>
+    <row r="242" ht="17.6" spans="9:16">
+      <c r="I242" s="7"/>
+      <c r="J242" s="7"/>
+      <c r="K242" s="7"/>
+      <c r="L242" s="7"/>
+      <c r="M242" s="7"/>
+      <c r="N242" s="7"/>
+      <c r="O242" s="7"/>
+      <c r="P242" s="7"/>
+    </row>
+    <row r="243" ht="17.6" spans="9:16">
+      <c r="I243" s="7"/>
+      <c r="J243" s="7"/>
+      <c r="K243" s="7"/>
+      <c r="L243" s="7"/>
+      <c r="M243" s="7"/>
+      <c r="N243" s="7"/>
+      <c r="O243" s="7"/>
+      <c r="P243" s="7"/>
+    </row>
+    <row r="244" ht="17.6" spans="9:16">
+      <c r="I244" s="7"/>
+      <c r="J244" s="7"/>
+      <c r="K244" s="7"/>
+      <c r="L244" s="7"/>
+      <c r="M244" s="7"/>
+      <c r="N244" s="7"/>
+      <c r="O244" s="7"/>
+      <c r="P244" s="7"/>
+    </row>
+    <row r="245" ht="17.6" spans="9:16">
+      <c r="I245" s="7"/>
+      <c r="J245" s="7"/>
+      <c r="K245" s="7"/>
+      <c r="L245" s="7"/>
+      <c r="M245" s="7"/>
+      <c r="N245" s="7"/>
+      <c r="O245" s="7"/>
+      <c r="P245" s="7"/>
+    </row>
+    <row r="246" ht="17.6" spans="9:16">
+      <c r="I246" s="7"/>
+      <c r="J246" s="7"/>
+      <c r="K246" s="7"/>
+      <c r="L246" s="7"/>
+      <c r="M246" s="7"/>
+      <c r="N246" s="7"/>
+      <c r="O246" s="7"/>
+      <c r="P246" s="7"/>
+    </row>
+    <row r="247" ht="17.6" spans="9:16">
+      <c r="I247" s="7"/>
+      <c r="J247" s="7"/>
+      <c r="K247" s="7"/>
+      <c r="L247" s="7"/>
+      <c r="M247" s="7"/>
+      <c r="N247" s="7"/>
+      <c r="O247" s="7"/>
+      <c r="P247" s="7"/>
+    </row>
+    <row r="248" ht="17.6" spans="9:16">
+      <c r="I248" s="7"/>
+      <c r="J248" s="7"/>
+      <c r="K248" s="7"/>
+      <c r="L248" s="7"/>
+      <c r="M248" s="7"/>
+      <c r="N248" s="7"/>
+      <c r="O248" s="7"/>
+      <c r="P248" s="7"/>
+    </row>
+    <row r="249" ht="17.6" spans="9:16">
+      <c r="I249" s="7"/>
+      <c r="J249" s="7"/>
+      <c r="K249" s="7"/>
+      <c r="L249" s="7"/>
+      <c r="M249" s="7"/>
+      <c r="N249" s="7"/>
+      <c r="O249" s="7"/>
+      <c r="P249" s="7"/>
+    </row>
+    <row r="250" ht="17.6" spans="9:16">
+      <c r="I250" s="7"/>
+      <c r="J250" s="7"/>
+      <c r="K250" s="7"/>
+      <c r="L250" s="7"/>
+      <c r="M250" s="7"/>
+      <c r="N250" s="7"/>
+      <c r="O250" s="7"/>
+      <c r="P250" s="7"/>
+    </row>
+    <row r="251" ht="17.6" spans="9:16">
+      <c r="I251" s="7"/>
+      <c r="J251" s="7"/>
+      <c r="K251" s="7"/>
+      <c r="L251" s="7"/>
+      <c r="M251" s="7"/>
+      <c r="N251" s="7"/>
+      <c r="O251" s="7"/>
+      <c r="P251" s="7"/>
+    </row>
+    <row r="252" ht="17.6" spans="9:16">
+      <c r="I252" s="7"/>
+      <c r="J252" s="7"/>
+      <c r="K252" s="7"/>
+      <c r="L252" s="7"/>
+      <c r="M252" s="7"/>
+      <c r="N252" s="7"/>
+      <c r="O252" s="7"/>
+      <c r="P252" s="7"/>
+    </row>
+    <row r="253" ht="17.6" spans="9:16">
+      <c r="I253" s="7"/>
+      <c r="J253" s="7"/>
+      <c r="K253" s="7"/>
+      <c r="L253" s="7"/>
+      <c r="M253" s="7"/>
+      <c r="N253" s="7"/>
+      <c r="O253" s="7"/>
+      <c r="P253" s="7"/>
+    </row>
+    <row r="254" ht="17.6" spans="9:16">
+      <c r="I254" s="7"/>
+      <c r="J254" s="7"/>
+      <c r="K254" s="7"/>
+      <c r="L254" s="7"/>
+      <c r="M254" s="7"/>
+      <c r="N254" s="7"/>
+      <c r="O254" s="7"/>
+      <c r="P254" s="7"/>
+    </row>
+    <row r="255" ht="17.6" spans="9:16">
+      <c r="I255" s="7"/>
+      <c r="J255" s="7"/>
+      <c r="K255" s="7"/>
+      <c r="L255" s="7"/>
+      <c r="M255" s="7"/>
+      <c r="N255" s="7"/>
+      <c r="O255" s="7"/>
+      <c r="P255" s="7"/>
+    </row>
+    <row r="256" ht="17.6" spans="9:16">
+      <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
+      <c r="K256" s="7"/>
+      <c r="L256" s="7"/>
+      <c r="M256" s="7"/>
+      <c r="N256" s="7"/>
+      <c r="O256" s="7"/>
+      <c r="P256" s="7"/>
+    </row>
+    <row r="257" ht="17.6" spans="9:16">
+      <c r="I257" s="7"/>
+      <c r="J257" s="7"/>
+      <c r="K257" s="7"/>
+      <c r="L257" s="7"/>
+      <c r="M257" s="7"/>
+      <c r="N257" s="7"/>
+      <c r="O257" s="7"/>
+      <c r="P257" s="7"/>
+    </row>
+    <row r="258" ht="17.6" spans="9:16">
+      <c r="I258" s="7"/>
+      <c r="J258" s="7"/>
+      <c r="K258" s="7"/>
+      <c r="L258" s="7"/>
+      <c r="M258" s="7"/>
+      <c r="N258" s="7"/>
+      <c r="O258" s="7"/>
+      <c r="P258" s="7"/>
+    </row>
+    <row r="259" ht="17.6" spans="9:16">
+      <c r="I259" s="7"/>
+      <c r="J259" s="7"/>
+      <c r="K259" s="7"/>
+      <c r="L259" s="7"/>
+      <c r="M259" s="7"/>
+      <c r="N259" s="7"/>
+      <c r="O259" s="7"/>
+      <c r="P259" s="7"/>
+    </row>
+    <row r="260" ht="17.6" spans="9:16">
+      <c r="I260" s="7"/>
+      <c r="J260" s="7"/>
+      <c r="K260" s="7"/>
+      <c r="L260" s="7"/>
+      <c r="M260" s="7"/>
+      <c r="N260" s="7"/>
+      <c r="O260" s="7"/>
+      <c r="P260" s="7"/>
+    </row>
+    <row r="261" ht="17.6" spans="9:16">
+      <c r="I261" s="7"/>
+      <c r="J261" s="7"/>
+      <c r="K261" s="7"/>
+      <c r="L261" s="7"/>
+      <c r="M261" s="7"/>
+      <c r="N261" s="7"/>
+      <c r="O261" s="7"/>
+      <c r="P261" s="7"/>
+    </row>
+    <row r="262" ht="17.6" spans="9:16">
+      <c r="I262" s="7"/>
+      <c r="J262" s="7"/>
+      <c r="K262" s="7"/>
+      <c r="L262" s="7"/>
+      <c r="M262" s="7"/>
+      <c r="N262" s="7"/>
+      <c r="O262" s="7"/>
+      <c r="P262" s="7"/>
+    </row>
+    <row r="263" ht="17.6" spans="9:16">
+      <c r="I263" s="7"/>
+      <c r="J263" s="7"/>
+      <c r="K263" s="7"/>
+      <c r="L263" s="7"/>
+      <c r="M263" s="7"/>
+      <c r="N263" s="7"/>
+      <c r="O263" s="7"/>
+      <c r="P263" s="7"/>
+    </row>
+    <row r="264" ht="17.6" spans="9:16">
+      <c r="I264" s="7"/>
+      <c r="J264" s="7"/>
+      <c r="K264" s="7"/>
+      <c r="L264" s="7"/>
+      <c r="M264" s="7"/>
+      <c r="N264" s="7"/>
+      <c r="O264" s="7"/>
+      <c r="P264" s="7"/>
+    </row>
+    <row r="265" ht="17.6" spans="9:16">
+      <c r="I265" s="7"/>
+      <c r="J265" s="7"/>
+      <c r="K265" s="7"/>
+      <c r="L265" s="7"/>
+      <c r="M265" s="7"/>
+      <c r="N265" s="7"/>
+      <c r="O265" s="7"/>
+      <c r="P265" s="7"/>
+    </row>
+    <row r="266" ht="17.6" spans="9:16">
+      <c r="I266" s="7"/>
+      <c r="J266" s="7"/>
+      <c r="K266" s="7"/>
+      <c r="L266" s="7"/>
+      <c r="M266" s="7"/>
+      <c r="N266" s="7"/>
+      <c r="O266" s="7"/>
+      <c r="P266" s="7"/>
+    </row>
+    <row r="267" ht="17.6" spans="9:16">
+      <c r="I267" s="7"/>
+      <c r="J267" s="7"/>
+      <c r="K267" s="7"/>
+      <c r="L267" s="7"/>
+      <c r="M267" s="7"/>
+      <c r="N267" s="7"/>
+      <c r="O267" s="7"/>
+      <c r="P267" s="7"/>
+    </row>
+    <row r="268" ht="17.6" spans="9:16">
+      <c r="I268" s="7"/>
+      <c r="J268" s="7"/>
+      <c r="K268" s="7"/>
+      <c r="L268" s="7"/>
+      <c r="M268" s="7"/>
+      <c r="N268" s="7"/>
+      <c r="O268" s="7"/>
+      <c r="P268" s="7"/>
+    </row>
+    <row r="269" ht="17.6" spans="9:16">
+      <c r="I269" s="7"/>
+      <c r="J269" s="7"/>
+      <c r="K269" s="7"/>
+      <c r="L269" s="7"/>
+      <c r="M269" s="7"/>
+      <c r="N269" s="7"/>
+      <c r="O269" s="7"/>
+      <c r="P269" s="7"/>
+    </row>
+    <row r="270" ht="17.6" spans="9:16">
+      <c r="I270" s="7"/>
+      <c r="J270" s="7"/>
+      <c r="K270" s="7"/>
+      <c r="L270" s="7"/>
+      <c r="M270" s="7"/>
+      <c r="N270" s="7"/>
+      <c r="O270" s="7"/>
+      <c r="P270" s="7"/>
+    </row>
+    <row r="271" ht="17.6" spans="9:16">
+      <c r="I271" s="7"/>
+      <c r="J271" s="7"/>
+      <c r="K271" s="7"/>
+      <c r="L271" s="7"/>
+      <c r="M271" s="7"/>
+      <c r="N271" s="7"/>
+      <c r="O271" s="7"/>
+      <c r="P271" s="7"/>
+    </row>
+    <row r="272" ht="17.6" spans="9:16">
+      <c r="I272" s="7"/>
+      <c r="J272" s="7"/>
+      <c r="K272" s="7"/>
+      <c r="L272" s="7"/>
+      <c r="M272" s="7"/>
+      <c r="N272" s="7"/>
+      <c r="O272" s="7"/>
+      <c r="P272" s="7"/>
+    </row>
+    <row r="273" ht="17.6" spans="9:16">
+      <c r="I273" s="7"/>
+      <c r="J273" s="7"/>
+      <c r="K273" s="7"/>
+      <c r="L273" s="7"/>
+      <c r="M273" s="7"/>
+      <c r="N273" s="7"/>
+      <c r="O273" s="7"/>
+      <c r="P273" s="7"/>
+    </row>
+    <row r="274" ht="17.6" spans="9:16">
+      <c r="I274" s="7"/>
+      <c r="J274" s="7"/>
+      <c r="K274" s="7"/>
+      <c r="L274" s="7"/>
+      <c r="M274" s="7"/>
+      <c r="N274" s="7"/>
+      <c r="O274" s="7"/>
+      <c r="P274" s="7"/>
+    </row>
+    <row r="275" ht="17.6" spans="9:16">
+      <c r="I275" s="7"/>
+      <c r="J275" s="7"/>
+      <c r="K275" s="7"/>
+      <c r="L275" s="7"/>
+      <c r="M275" s="7"/>
+      <c r="N275" s="7"/>
+      <c r="O275" s="7"/>
+      <c r="P275" s="7"/>
+    </row>
+    <row r="276" ht="17.6" spans="9:16">
+      <c r="I276" s="7"/>
+      <c r="J276" s="7"/>
+      <c r="K276" s="7"/>
+      <c r="L276" s="7"/>
+      <c r="M276" s="7"/>
+      <c r="N276" s="7"/>
+      <c r="O276" s="7"/>
+      <c r="P276" s="7"/>
+    </row>
+    <row r="277" ht="17.6" spans="9:16">
+      <c r="I277" s="7"/>
+      <c r="J277" s="7"/>
+      <c r="K277" s="7"/>
+      <c r="L277" s="7"/>
+      <c r="M277" s="7"/>
+      <c r="N277" s="7"/>
+      <c r="O277" s="7"/>
+      <c r="P277" s="7"/>
+    </row>
+    <row r="278" ht="17.6" spans="9:16">
+      <c r="I278" s="7"/>
+      <c r="J278" s="7"/>
+      <c r="K278" s="7"/>
+      <c r="L278" s="7"/>
+      <c r="M278" s="7"/>
+      <c r="N278" s="7"/>
+      <c r="O278" s="7"/>
+      <c r="P278" s="7"/>
+    </row>
+    <row r="279" ht="17.6" spans="9:16">
+      <c r="I279" s="7"/>
+      <c r="J279" s="7"/>
+      <c r="K279" s="7"/>
+      <c r="L279" s="7"/>
+      <c r="M279" s="7"/>
+      <c r="N279" s="7"/>
+      <c r="O279" s="7"/>
+      <c r="P279" s="7"/>
+    </row>
+    <row r="280" ht="17.6" spans="9:16">
+      <c r="I280" s="7"/>
+      <c r="J280" s="7"/>
+      <c r="K280" s="7"/>
+      <c r="L280" s="7"/>
+      <c r="M280" s="7"/>
+      <c r="N280" s="7"/>
+      <c r="O280" s="7"/>
+      <c r="P280" s="7"/>
+    </row>
+    <row r="281" ht="17.6" spans="9:16">
+      <c r="I281" s="7"/>
+      <c r="J281" s="7"/>
+      <c r="K281" s="7"/>
+      <c r="L281" s="7"/>
+      <c r="M281" s="7"/>
+      <c r="N281" s="7"/>
+      <c r="O281" s="7"/>
+      <c r="P281" s="7"/>
+    </row>
+    <row r="282" ht="17.6" spans="9:16">
+      <c r="I282" s="7"/>
+      <c r="J282" s="7"/>
+      <c r="K282" s="7"/>
+      <c r="L282" s="7"/>
+      <c r="M282" s="7"/>
+      <c r="N282" s="7"/>
+      <c r="O282" s="7"/>
+      <c r="P282" s="7"/>
+    </row>
+    <row r="283" ht="17.6" spans="9:16">
+      <c r="I283" s="7"/>
+      <c r="J283" s="7"/>
+      <c r="K283" s="7"/>
+      <c r="L283" s="7"/>
+      <c r="M283" s="7"/>
+      <c r="N283" s="7"/>
+      <c r="O283" s="7"/>
+      <c r="P283" s="7"/>
+    </row>
+    <row r="284" ht="17.6" spans="9:16">
+      <c r="I284" s="7"/>
+      <c r="J284" s="7"/>
+      <c r="K284" s="7"/>
+      <c r="L284" s="7"/>
+      <c r="M284" s="7"/>
+      <c r="N284" s="7"/>
+      <c r="O284" s="7"/>
+      <c r="P284" s="7"/>
+    </row>
+    <row r="285" ht="17.6" spans="9:16">
+      <c r="I285" s="7"/>
+      <c r="J285" s="7"/>
+      <c r="K285" s="7"/>
+      <c r="L285" s="7"/>
+      <c r="M285" s="7"/>
+      <c r="N285" s="7"/>
+      <c r="O285" s="7"/>
+      <c r="P285" s="7"/>
+    </row>
+    <row r="286" ht="17.6" spans="9:16">
+      <c r="I286" s="7"/>
+      <c r="J286" s="7"/>
+      <c r="K286" s="7"/>
+      <c r="L286" s="7"/>
+      <c r="M286" s="7"/>
+      <c r="N286" s="7"/>
+      <c r="O286" s="7"/>
+      <c r="P286" s="7"/>
+    </row>
+    <row r="287" ht="17.6" spans="9:16">
+      <c r="I287" s="7"/>
+      <c r="J287" s="7"/>
+      <c r="K287" s="7"/>
+      <c r="L287" s="7"/>
+      <c r="M287" s="7"/>
+      <c r="N287" s="7"/>
+      <c r="O287" s="7"/>
+      <c r="P287" s="7"/>
+    </row>
+    <row r="288" ht="17.6" spans="9:16">
+      <c r="I288" s="7"/>
+      <c r="J288" s="7"/>
+      <c r="K288" s="7"/>
+      <c r="L288" s="7"/>
+      <c r="M288" s="7"/>
+      <c r="N288" s="7"/>
+      <c r="O288" s="7"/>
+      <c r="P288" s="7"/>
+    </row>
+    <row r="289" ht="17.6" spans="9:16">
+      <c r="I289" s="7"/>
+      <c r="J289" s="7"/>
+      <c r="K289" s="7"/>
+      <c r="L289" s="7"/>
+      <c r="M289" s="7"/>
+      <c r="N289" s="7"/>
+      <c r="O289" s="7"/>
+      <c r="P289" s="7"/>
+    </row>
+    <row r="290" ht="17.6" spans="9:16">
+      <c r="I290" s="7"/>
+      <c r="J290" s="7"/>
+      <c r="K290" s="7"/>
+      <c r="L290" s="7"/>
+      <c r="M290" s="7"/>
+      <c r="N290" s="7"/>
+      <c r="O290" s="7"/>
+      <c r="P290" s="7"/>
+    </row>
+    <row r="291" ht="17.6" spans="9:16">
+      <c r="I291" s="7"/>
+      <c r="J291" s="7"/>
+      <c r="K291" s="7"/>
+      <c r="L291" s="7"/>
+      <c r="M291" s="7"/>
+      <c r="N291" s="7"/>
+      <c r="O291" s="7"/>
+      <c r="P291" s="7"/>
+    </row>
+    <row r="292" ht="17.6" spans="9:16">
+      <c r="I292" s="7"/>
+      <c r="J292" s="7"/>
+      <c r="K292" s="7"/>
+      <c r="L292" s="7"/>
+      <c r="M292" s="7"/>
+      <c r="N292" s="7"/>
+      <c r="O292" s="7"/>
+      <c r="P292" s="7"/>
+    </row>
+    <row r="293" ht="17.6" spans="9:16">
+      <c r="I293" s="7"/>
+      <c r="J293" s="7"/>
+      <c r="K293" s="7"/>
+      <c r="L293" s="7"/>
+      <c r="M293" s="7"/>
+      <c r="N293" s="7"/>
+      <c r="O293" s="7"/>
+      <c r="P293" s="7"/>
+    </row>
+    <row r="294" ht="17.6" spans="9:16">
+      <c r="I294" s="7"/>
+      <c r="J294" s="7"/>
+      <c r="K294" s="7"/>
+      <c r="L294" s="7"/>
+      <c r="M294" s="7"/>
+      <c r="N294" s="7"/>
+      <c r="O294" s="7"/>
+      <c r="P294" s="7"/>
+    </row>
+    <row r="295" ht="17.6" spans="9:16">
+      <c r="I295" s="7"/>
+      <c r="J295" s="7"/>
+      <c r="K295" s="7"/>
+      <c r="L295" s="7"/>
+      <c r="M295" s="7"/>
+      <c r="N295" s="7"/>
+      <c r="O295" s="7"/>
+      <c r="P295" s="7"/>
+    </row>
+    <row r="296" ht="17.6" spans="9:16">
+      <c r="I296" s="7"/>
+      <c r="J296" s="7"/>
+      <c r="K296" s="7"/>
+      <c r="L296" s="7"/>
+      <c r="M296" s="7"/>
+      <c r="N296" s="7"/>
+      <c r="O296" s="7"/>
+      <c r="P296" s="7"/>
+    </row>
+    <row r="297" ht="17.6" spans="9:16">
+      <c r="I297" s="7"/>
+      <c r="J297" s="7"/>
+      <c r="K297" s="7"/>
+      <c r="L297" s="7"/>
+      <c r="M297" s="7"/>
+      <c r="N297" s="7"/>
+      <c r="O297" s="7"/>
+      <c r="P297" s="7"/>
+    </row>
+    <row r="298" ht="17.6" spans="9:16">
+      <c r="I298" s="7"/>
+      <c r="J298" s="7"/>
+      <c r="K298" s="7"/>
+      <c r="L298" s="7"/>
+      <c r="M298" s="7"/>
+      <c r="N298" s="7"/>
+      <c r="O298" s="7"/>
+      <c r="P298" s="7"/>
+    </row>
+    <row r="299" ht="17.6" spans="9:16">
+      <c r="I299" s="7"/>
+      <c r="J299" s="7"/>
+      <c r="K299" s="7"/>
+      <c r="L299" s="7"/>
+      <c r="M299" s="7"/>
+      <c r="N299" s="7"/>
+      <c r="O299" s="7"/>
+      <c r="P299" s="7"/>
+    </row>
+    <row r="300" ht="17.6" spans="9:16">
+      <c r="I300" s="7"/>
+      <c r="J300" s="7"/>
+      <c r="K300" s="7"/>
+      <c r="L300" s="7"/>
+      <c r="M300" s="7"/>
+      <c r="N300" s="7"/>
+      <c r="O300" s="7"/>
+      <c r="P300" s="7"/>
+    </row>
+    <row r="301" ht="17.6" spans="9:16">
+      <c r="I301" s="7"/>
+      <c r="J301" s="7"/>
+      <c r="K301" s="7"/>
+      <c r="L301" s="7"/>
+      <c r="M301" s="7"/>
+      <c r="N301" s="7"/>
+      <c r="O301" s="7"/>
+      <c r="P301" s="7"/>
+    </row>
+    <row r="302" ht="17.6" spans="9:16">
+      <c r="I302" s="7"/>
+      <c r="J302" s="7"/>
+      <c r="K302" s="7"/>
+      <c r="L302" s="7"/>
+      <c r="M302" s="7"/>
+      <c r="N302" s="7"/>
+      <c r="O302" s="7"/>
+      <c r="P302" s="7"/>
+    </row>
+    <row r="303" ht="17.6" spans="9:16">
+      <c r="I303" s="7"/>
+      <c r="J303" s="7"/>
+      <c r="K303" s="7"/>
+      <c r="L303" s="7"/>
+      <c r="M303" s="7"/>
+      <c r="N303" s="7"/>
+      <c r="O303" s="7"/>
+      <c r="P303" s="7"/>
+    </row>
+    <row r="304" ht="17.6" spans="9:16">
+      <c r="I304" s="7"/>
+      <c r="J304" s="7"/>
+      <c r="K304" s="7"/>
+      <c r="L304" s="7"/>
+      <c r="M304" s="7"/>
+      <c r="N304" s="7"/>
+      <c r="O304" s="7"/>
+      <c r="P304" s="7"/>
+    </row>
+    <row r="305" ht="17.6" spans="9:16">
+      <c r="I305" s="7"/>
+      <c r="J305" s="7"/>
+      <c r="K305" s="7"/>
+      <c r="L305" s="7"/>
+      <c r="M305" s="7"/>
+      <c r="N305" s="7"/>
+      <c r="O305" s="7"/>
+      <c r="P305" s="7"/>
+    </row>
+    <row r="306" ht="17.6" spans="9:16">
+      <c r="I306" s="7"/>
+      <c r="J306" s="7"/>
+      <c r="K306" s="7"/>
+      <c r="L306" s="7"/>
+      <c r="M306" s="7"/>
+      <c r="N306" s="7"/>
+      <c r="O306" s="7"/>
+      <c r="P306" s="7"/>
+    </row>
+    <row r="307" ht="17.6" spans="9:16">
+      <c r="I307" s="7"/>
+      <c r="J307" s="7"/>
+      <c r="K307" s="7"/>
+      <c r="L307" s="7"/>
+      <c r="M307" s="7"/>
+      <c r="N307" s="7"/>
+      <c r="O307" s="7"/>
+      <c r="P307" s="7"/>
+    </row>
+    <row r="308" ht="17.6" spans="9:16">
+      <c r="I308" s="7"/>
+      <c r="J308" s="7"/>
+      <c r="K308" s="7"/>
+      <c r="L308" s="7"/>
+      <c r="M308" s="7"/>
+      <c r="N308" s="7"/>
+      <c r="O308" s="7"/>
+      <c r="P308" s="7"/>
+    </row>
+    <row r="309" ht="17.6" spans="9:16">
+      <c r="I309" s="7"/>
+      <c r="J309" s="7"/>
+      <c r="K309" s="7"/>
+      <c r="L309" s="7"/>
+      <c r="M309" s="7"/>
+      <c r="N309" s="7"/>
+      <c r="O309" s="7"/>
+      <c r="P309" s="7"/>
+    </row>
+    <row r="310" ht="17.6" spans="9:16">
+      <c r="I310" s="7"/>
+      <c r="J310" s="7"/>
+      <c r="K310" s="7"/>
+      <c r="L310" s="7"/>
+      <c r="M310" s="7"/>
+      <c r="N310" s="7"/>
+      <c r="O310" s="7"/>
+      <c r="P310" s="7"/>
+    </row>
+    <row r="311" ht="17.6" spans="9:16">
+      <c r="I311" s="7"/>
+      <c r="J311" s="7"/>
+      <c r="K311" s="7"/>
+      <c r="L311" s="7"/>
+      <c r="M311" s="7"/>
+      <c r="N311" s="7"/>
+      <c r="O311" s="7"/>
+      <c r="P311" s="7"/>
+    </row>
+    <row r="312" ht="17.6" spans="9:16">
+      <c r="I312" s="7"/>
+      <c r="J312" s="7"/>
+      <c r="K312" s="7"/>
+      <c r="L312" s="7"/>
+      <c r="M312" s="7"/>
+      <c r="N312" s="7"/>
+      <c r="O312" s="7"/>
+      <c r="P312" s="7"/>
+    </row>
+    <row r="313" ht="17.6" spans="9:16">
+      <c r="I313" s="7"/>
+      <c r="J313" s="7"/>
+      <c r="K313" s="7"/>
+      <c r="L313" s="7"/>
+      <c r="M313" s="7"/>
+      <c r="N313" s="7"/>
+      <c r="O313" s="7"/>
+      <c r="P313" s="7"/>
+    </row>
+    <row r="314" ht="17.6" spans="9:16">
+      <c r="I314" s="7"/>
+      <c r="J314" s="7"/>
+      <c r="K314" s="7"/>
+      <c r="L314" s="7"/>
+      <c r="M314" s="7"/>
+      <c r="N314" s="7"/>
+      <c r="O314" s="7"/>
+      <c r="P314" s="7"/>
+    </row>
+    <row r="315" ht="17.6" spans="9:16">
+      <c r="I315" s="7"/>
+      <c r="J315" s="7"/>
+      <c r="K315" s="7"/>
+      <c r="L315" s="7"/>
+      <c r="M315" s="7"/>
+      <c r="N315" s="7"/>
+      <c r="O315" s="7"/>
+      <c r="P315" s="7"/>
+    </row>
+    <row r="316" ht="17.6" spans="9:16">
+      <c r="I316" s="7"/>
+      <c r="J316" s="7"/>
+      <c r="K316" s="7"/>
+      <c r="L316" s="7"/>
+      <c r="M316" s="7"/>
+      <c r="N316" s="7"/>
+      <c r="O316" s="7"/>
+      <c r="P316" s="7"/>
+    </row>
+    <row r="317" ht="17.6" spans="9:16">
+      <c r="I317" s="7"/>
+      <c r="J317" s="7"/>
+      <c r="K317" s="7"/>
+      <c r="L317" s="7"/>
+      <c r="M317" s="7"/>
+      <c r="N317" s="7"/>
+      <c r="O317" s="7"/>
+      <c r="P317" s="7"/>
+    </row>
+    <row r="318" ht="17.6" spans="9:16">
+      <c r="I318" s="7"/>
+      <c r="J318" s="7"/>
+      <c r="K318" s="7"/>
+      <c r="L318" s="7"/>
+      <c r="M318" s="7"/>
+      <c r="N318" s="7"/>
+      <c r="O318" s="7"/>
+      <c r="P318" s="7"/>
+    </row>
+    <row r="319" ht="17.6" spans="9:16">
+      <c r="I319" s="7"/>
+      <c r="J319" s="7"/>
+      <c r="K319" s="7"/>
+      <c r="L319" s="7"/>
+      <c r="M319" s="7"/>
+      <c r="N319" s="7"/>
+      <c r="O319" s="7"/>
+      <c r="P319" s="7"/>
+    </row>
+    <row r="320" ht="17.6" spans="9:16">
+      <c r="I320" s="7"/>
+      <c r="J320" s="7"/>
+      <c r="K320" s="7"/>
+      <c r="L320" s="7"/>
+      <c r="M320" s="7"/>
+      <c r="N320" s="7"/>
+      <c r="O320" s="7"/>
+      <c r="P320" s="7"/>
+    </row>
+    <row r="321" ht="17.6" spans="9:16">
+      <c r="I321" s="7"/>
+      <c r="J321" s="7"/>
+      <c r="K321" s="7"/>
+      <c r="L321" s="7"/>
+      <c r="M321" s="7"/>
+      <c r="N321" s="7"/>
+      <c r="O321" s="7"/>
+      <c r="P321" s="7"/>
+    </row>
+    <row r="322" ht="17.6" spans="9:16">
+      <c r="I322" s="7"/>
+      <c r="J322" s="7"/>
+      <c r="K322" s="7"/>
+      <c r="L322" s="7"/>
+      <c r="M322" s="7"/>
+      <c r="N322" s="7"/>
+      <c r="O322" s="7"/>
+      <c r="P322" s="7"/>
+    </row>
+    <row r="323" ht="17.6" spans="9:16">
+      <c r="I323" s="7"/>
+      <c r="J323" s="7"/>
+      <c r="K323" s="7"/>
+      <c r="L323" s="7"/>
+      <c r="M323" s="7"/>
+      <c r="N323" s="7"/>
+      <c r="O323" s="7"/>
+      <c r="P323" s="7"/>
+    </row>
+    <row r="324" ht="17.6" spans="9:16">
+      <c r="I324" s="7"/>
+      <c r="J324" s="7"/>
+      <c r="K324" s="7"/>
+      <c r="L324" s="7"/>
+      <c r="M324" s="7"/>
+      <c r="N324" s="7"/>
+      <c r="O324" s="7"/>
+      <c r="P324" s="7"/>
+    </row>
+    <row r="325" ht="17.6" spans="9:16">
+      <c r="I325" s="7"/>
+      <c r="J325" s="7"/>
+      <c r="K325" s="7"/>
+      <c r="L325" s="7"/>
+      <c r="M325" s="7"/>
+      <c r="N325" s="7"/>
+      <c r="O325" s="7"/>
+      <c r="P325" s="7"/>
+    </row>
+    <row r="326" ht="17.6" spans="9:16">
+      <c r="I326" s="7"/>
+      <c r="J326" s="7"/>
+      <c r="K326" s="7"/>
+      <c r="L326" s="7"/>
+      <c r="M326" s="7"/>
+      <c r="N326" s="7"/>
+      <c r="O326" s="7"/>
+      <c r="P326" s="7"/>
+    </row>
+    <row r="327" ht="17.6" spans="9:16">
+      <c r="I327" s="7"/>
+      <c r="J327" s="7"/>
+      <c r="K327" s="7"/>
+      <c r="L327" s="7"/>
+      <c r="M327" s="7"/>
+      <c r="N327" s="7"/>
+      <c r="O327" s="7"/>
+      <c r="P327" s="7"/>
+    </row>
+    <row r="328" ht="17.6" spans="9:16">
+      <c r="I328" s="7"/>
+      <c r="J328" s="7"/>
+      <c r="K328" s="7"/>
+      <c r="L328" s="7"/>
+      <c r="M328" s="7"/>
+      <c r="N328" s="7"/>
+      <c r="O328" s="7"/>
+      <c r="P328" s="7"/>
+    </row>
+    <row r="329" ht="17.6" spans="9:16">
+      <c r="I329" s="7"/>
+      <c r="J329" s="7"/>
+      <c r="K329" s="7"/>
+      <c r="L329" s="7"/>
+      <c r="M329" s="7"/>
+      <c r="N329" s="7"/>
+      <c r="O329" s="7"/>
+      <c r="P329" s="7"/>
+    </row>
+    <row r="330" ht="17.6" spans="9:16">
+      <c r="I330" s="7"/>
+      <c r="J330" s="7"/>
+      <c r="K330" s="7"/>
+      <c r="L330" s="7"/>
+      <c r="M330" s="7"/>
+      <c r="N330" s="7"/>
+      <c r="O330" s="7"/>
+      <c r="P330" s="7"/>
+    </row>
+    <row r="331" ht="17.6" spans="9:16">
+      <c r="I331" s="7"/>
+      <c r="J331" s="7"/>
+      <c r="K331" s="7"/>
+      <c r="L331" s="7"/>
+      <c r="M331" s="7"/>
+      <c r="N331" s="7"/>
+      <c r="O331" s="7"/>
+      <c r="P331" s="7"/>
+    </row>
+    <row r="332" ht="17.6" spans="9:16">
+      <c r="I332" s="7"/>
+      <c r="J332" s="7"/>
+      <c r="K332" s="7"/>
+      <c r="L332" s="7"/>
+      <c r="M332" s="7"/>
+      <c r="N332" s="7"/>
+      <c r="O332" s="7"/>
+      <c r="P332" s="7"/>
+    </row>
+    <row r="333" ht="17.6" spans="9:16">
+      <c r="I333" s="7"/>
+      <c r="J333" s="7"/>
+      <c r="K333" s="7"/>
+      <c r="L333" s="7"/>
+      <c r="M333" s="7"/>
+      <c r="N333" s="7"/>
+      <c r="O333" s="7"/>
+      <c r="P333" s="7"/>
+    </row>
+    <row r="334" ht="17.6" spans="9:16">
+      <c r="I334" s="7"/>
+      <c r="J334" s="7"/>
+      <c r="K334" s="7"/>
+      <c r="L334" s="7"/>
+      <c r="M334" s="7"/>
+      <c r="N334" s="7"/>
+      <c r="O334" s="7"/>
+      <c r="P334" s="7"/>
+    </row>
+    <row r="335" ht="17.6" spans="9:16">
+      <c r="I335" s="7"/>
+      <c r="J335" s="7"/>
+      <c r="K335" s="7"/>
+      <c r="L335" s="7"/>
+      <c r="M335" s="7"/>
+      <c r="N335" s="7"/>
+      <c r="O335" s="7"/>
+      <c r="P335" s="7"/>
+    </row>
+    <row r="336" ht="17.6" spans="9:16">
+      <c r="I336" s="7"/>
+      <c r="J336" s="7"/>
+      <c r="K336" s="7"/>
+      <c r="L336" s="7"/>
+      <c r="M336" s="7"/>
+      <c r="N336" s="7"/>
+      <c r="O336" s="7"/>
+      <c r="P336" s="7"/>
+    </row>
+    <row r="337" ht="17.6" spans="9:16">
+      <c r="I337" s="7"/>
+      <c r="J337" s="7"/>
+      <c r="K337" s="7"/>
+      <c r="L337" s="7"/>
+      <c r="M337" s="7"/>
+      <c r="N337" s="7"/>
+      <c r="O337" s="7"/>
+      <c r="P337" s="7"/>
+    </row>
+    <row r="338" ht="17.6" spans="9:16">
+      <c r="I338" s="7"/>
+      <c r="J338" s="7"/>
+      <c r="K338" s="7"/>
+      <c r="L338" s="7"/>
+      <c r="M338" s="7"/>
+      <c r="N338" s="7"/>
+      <c r="O338" s="7"/>
+      <c r="P338" s="7"/>
+    </row>
+    <row r="339" ht="17.6" spans="9:16">
+      <c r="I339" s="7"/>
+      <c r="J339" s="7"/>
+      <c r="K339" s="7"/>
+      <c r="L339" s="7"/>
+      <c r="M339" s="7"/>
+      <c r="N339" s="7"/>
+      <c r="O339" s="7"/>
+      <c r="P339" s="7"/>
+    </row>
+    <row r="340" ht="17.6" spans="9:16">
+      <c r="I340" s="7"/>
+      <c r="J340" s="7"/>
+      <c r="K340" s="7"/>
+      <c r="L340" s="7"/>
+      <c r="M340" s="7"/>
+      <c r="N340" s="7"/>
+      <c r="O340" s="7"/>
+      <c r="P340" s="7"/>
+    </row>
+    <row r="341" ht="17.6" spans="9:16">
+      <c r="I341" s="7"/>
+      <c r="J341" s="7"/>
+      <c r="K341" s="7"/>
+      <c r="L341" s="7"/>
+      <c r="M341" s="7"/>
+      <c r="N341" s="7"/>
+      <c r="O341" s="7"/>
+      <c r="P341" s="7"/>
+    </row>
+    <row r="342" ht="17.6" spans="9:16">
+      <c r="I342" s="7"/>
+      <c r="J342" s="7"/>
+      <c r="K342" s="7"/>
+      <c r="L342" s="7"/>
+      <c r="M342" s="7"/>
+      <c r="N342" s="7"/>
+      <c r="O342" s="7"/>
+      <c r="P342" s="7"/>
+    </row>
+    <row r="343" ht="17.6" spans="9:16">
+      <c r="I343" s="7"/>
+      <c r="J343" s="7"/>
+      <c r="K343" s="7"/>
+      <c r="L343" s="7"/>
+      <c r="M343" s="7"/>
+      <c r="N343" s="7"/>
+      <c r="O343" s="7"/>
+      <c r="P343" s="7"/>
+    </row>
+    <row r="344" ht="17.6" spans="9:16">
+      <c r="I344" s="7"/>
+      <c r="J344" s="7"/>
+      <c r="K344" s="7"/>
+      <c r="L344" s="7"/>
+      <c r="M344" s="7"/>
+      <c r="N344" s="7"/>
+      <c r="O344" s="7"/>
+      <c r="P344" s="7"/>
+    </row>
+    <row r="345" ht="17.6" spans="9:16">
+      <c r="I345" s="7"/>
+      <c r="J345" s="7"/>
+      <c r="K345" s="7"/>
+      <c r="L345" s="7"/>
+      <c r="M345" s="7"/>
+      <c r="N345" s="7"/>
+      <c r="O345" s="7"/>
+      <c r="P345" s="7"/>
+    </row>
+    <row r="346" ht="17.6" spans="9:16">
+      <c r="I346" s="7"/>
+      <c r="J346" s="7"/>
+      <c r="K346" s="7"/>
+      <c r="L346" s="7"/>
+      <c r="M346" s="7"/>
+      <c r="N346" s="7"/>
+      <c r="O346" s="7"/>
+      <c r="P346" s="7"/>
+    </row>
+    <row r="347" ht="17.6" spans="9:16">
+      <c r="I347" s="7"/>
+      <c r="J347" s="7"/>
+      <c r="K347" s="7"/>
+      <c r="L347" s="7"/>
+      <c r="M347" s="7"/>
+      <c r="N347" s="7"/>
+      <c r="O347" s="7"/>
+      <c r="P347" s="7"/>
+    </row>
+    <row r="348" ht="17.6" spans="9:16">
+      <c r="I348" s="7"/>
+      <c r="J348" s="7"/>
+      <c r="K348" s="7"/>
+      <c r="L348" s="7"/>
+      <c r="M348" s="7"/>
+      <c r="N348" s="7"/>
+      <c r="O348" s="7"/>
+      <c r="P348" s="7"/>
+    </row>
+    <row r="349" ht="17.6" spans="9:16">
+      <c r="I349" s="7"/>
+      <c r="J349" s="7"/>
+      <c r="K349" s="7"/>
+      <c r="L349" s="7"/>
+      <c r="M349" s="7"/>
+      <c r="N349" s="7"/>
+      <c r="O349" s="7"/>
+      <c r="P349" s="7"/>
+    </row>
+    <row r="350" ht="17.6" spans="9:16">
+      <c r="I350" s="7"/>
+      <c r="J350" s="7"/>
+      <c r="K350" s="7"/>
+      <c r="L350" s="7"/>
+      <c r="M350" s="7"/>
+      <c r="N350" s="7"/>
+      <c r="O350" s="7"/>
+      <c r="P350" s="7"/>
+    </row>
+    <row r="351" ht="17.6" spans="9:16">
+      <c r="I351" s="7"/>
+      <c r="J351" s="7"/>
+      <c r="K351" s="7"/>
+      <c r="L351" s="7"/>
+      <c r="M351" s="7"/>
+      <c r="N351" s="7"/>
+      <c r="O351" s="7"/>
+      <c r="P351" s="7"/>
+    </row>
+    <row r="352" ht="17.6" spans="9:16">
+      <c r="I352" s="7"/>
+      <c r="J352" s="7"/>
+      <c r="K352" s="7"/>
+      <c r="L352" s="7"/>
+      <c r="M352" s="7"/>
+      <c r="N352" s="7"/>
+      <c r="O352" s="7"/>
+      <c r="P352" s="7"/>
+    </row>
+    <row r="353" ht="17.6" spans="9:16">
+      <c r="I353" s="7"/>
+      <c r="J353" s="7"/>
+      <c r="K353" s="7"/>
+      <c r="L353" s="7"/>
+      <c r="M353" s="7"/>
+      <c r="N353" s="7"/>
+      <c r="O353" s="7"/>
+      <c r="P353" s="7"/>
+    </row>
+    <row r="354" ht="17.6" spans="9:16">
+      <c r="I354" s="7"/>
+      <c r="J354" s="7"/>
+      <c r="K354" s="7"/>
+      <c r="L354" s="7"/>
+      <c r="M354" s="7"/>
+      <c r="N354" s="7"/>
+      <c r="O354" s="7"/>
+      <c r="P354" s="7"/>
+    </row>
+    <row r="355" ht="17.6" spans="9:16">
+      <c r="I355" s="7"/>
+      <c r="J355" s="7"/>
+      <c r="K355" s="7"/>
+      <c r="L355" s="7"/>
+      <c r="M355" s="7"/>
+      <c r="N355" s="7"/>
+      <c r="O355" s="7"/>
+      <c r="P355" s="7"/>
+    </row>
+    <row r="356" ht="17.6" spans="9:16">
+      <c r="I356" s="7"/>
+      <c r="J356" s="7"/>
+      <c r="K356" s="7"/>
+      <c r="L356" s="7"/>
+      <c r="M356" s="7"/>
+      <c r="N356" s="7"/>
+      <c r="O356" s="7"/>
+      <c r="P356" s="7"/>
+    </row>
+    <row r="357" ht="17.6" spans="9:16">
+      <c r="I357" s="7"/>
+      <c r="J357" s="7"/>
+      <c r="K357" s="7"/>
+      <c r="L357" s="7"/>
+      <c r="M357" s="7"/>
+      <c r="N357" s="7"/>
+      <c r="O357" s="7"/>
+      <c r="P357" s="7"/>
+    </row>
+    <row r="358" ht="17.6" spans="9:16">
+      <c r="I358" s="7"/>
+      <c r="J358" s="7"/>
+      <c r="K358" s="7"/>
+      <c r="L358" s="7"/>
+      <c r="M358" s="7"/>
+      <c r="N358" s="7"/>
+      <c r="O358" s="7"/>
+      <c r="P358" s="7"/>
+    </row>
+    <row r="359" ht="17.6" spans="9:16">
+      <c r="I359" s="7"/>
+      <c r="J359" s="7"/>
+      <c r="K359" s="7"/>
+      <c r="L359" s="7"/>
+      <c r="M359" s="7"/>
+      <c r="N359" s="7"/>
+      <c r="O359" s="7"/>
+      <c r="P359" s="7"/>
+    </row>
+    <row r="360" ht="17.6" spans="9:16">
+      <c r="I360" s="7"/>
+      <c r="J360" s="7"/>
+      <c r="K360" s="7"/>
+      <c r="L360" s="7"/>
+      <c r="M360" s="7"/>
+      <c r="N360" s="7"/>
+      <c r="O360" s="7"/>
+      <c r="P360" s="7"/>
+    </row>
+    <row r="361" ht="17.6" spans="9:16">
+      <c r="I361" s="7"/>
+      <c r="J361" s="7"/>
+      <c r="K361" s="7"/>
+      <c r="L361" s="7"/>
+      <c r="M361" s="7"/>
+      <c r="N361" s="7"/>
+      <c r="O361" s="7"/>
+      <c r="P361" s="7"/>
+    </row>
+    <row r="362" ht="17.6" spans="9:16">
+      <c r="I362" s="7"/>
+      <c r="J362" s="7"/>
+      <c r="K362" s="7"/>
+      <c r="L362" s="7"/>
+      <c r="M362" s="7"/>
+      <c r="N362" s="7"/>
+      <c r="O362" s="7"/>
+      <c r="P362" s="7"/>
+    </row>
+    <row r="363" ht="17.6" spans="9:16">
+      <c r="I363" s="7"/>
+      <c r="J363" s="7"/>
+      <c r="K363" s="7"/>
+      <c r="L363" s="7"/>
+      <c r="M363" s="7"/>
+      <c r="N363" s="7"/>
+      <c r="O363" s="7"/>
+      <c r="P363" s="7"/>
+    </row>
+    <row r="364" ht="17.6" spans="9:16">
+      <c r="I364" s="7"/>
+      <c r="J364" s="7"/>
+      <c r="K364" s="7"/>
+      <c r="L364" s="7"/>
+      <c r="M364" s="7"/>
+      <c r="N364" s="7"/>
+      <c r="O364" s="7"/>
+      <c r="P364" s="7"/>
+    </row>
+    <row r="365" ht="17.6" spans="9:16">
+      <c r="I365" s="7"/>
+      <c r="J365" s="7"/>
+      <c r="K365" s="7"/>
+      <c r="L365" s="7"/>
+      <c r="M365" s="7"/>
+      <c r="N365" s="7"/>
+      <c r="O365" s="7"/>
+      <c r="P365" s="7"/>
+    </row>
+    <row r="366" ht="17.6" spans="9:16">
+      <c r="I366" s="7"/>
+      <c r="J366" s="7"/>
+      <c r="K366" s="7"/>
+      <c r="L366" s="7"/>
+      <c r="M366" s="7"/>
+      <c r="N366" s="7"/>
+      <c r="O366" s="7"/>
+      <c r="P366" s="7"/>
+    </row>
+    <row r="367" ht="17.6" spans="9:16">
+      <c r="I367" s="7"/>
+      <c r="J367" s="7"/>
+      <c r="K367" s="7"/>
+      <c r="L367" s="7"/>
+      <c r="M367" s="7"/>
+      <c r="N367" s="7"/>
+      <c r="O367" s="7"/>
+      <c r="P367" s="7"/>
+    </row>
+    <row r="368" ht="17.6" spans="9:16">
+      <c r="I368" s="7"/>
+      <c r="J368" s="7"/>
+      <c r="K368" s="7"/>
+      <c r="L368" s="7"/>
+      <c r="M368" s="7"/>
+      <c r="N368" s="7"/>
+      <c r="O368" s="7"/>
+      <c r="P368" s="7"/>
+    </row>
+    <row r="369" ht="17.6" spans="9:16">
+      <c r="I369" s="7"/>
+      <c r="J369" s="7"/>
+      <c r="K369" s="7"/>
+      <c r="L369" s="7"/>
+      <c r="M369" s="7"/>
+      <c r="N369" s="7"/>
+      <c r="O369" s="7"/>
+      <c r="P369" s="7"/>
+    </row>
+    <row r="370" ht="17.6" spans="9:16">
+      <c r="I370" s="7"/>
+      <c r="J370" s="7"/>
+      <c r="K370" s="7"/>
+      <c r="L370" s="7"/>
+      <c r="M370" s="7"/>
+      <c r="N370" s="7"/>
+      <c r="O370" s="7"/>
+      <c r="P370" s="7"/>
+    </row>
+    <row r="371" ht="17.6" spans="9:16">
+      <c r="I371" s="7"/>
+      <c r="J371" s="7"/>
+      <c r="K371" s="7"/>
+      <c r="L371" s="7"/>
+      <c r="M371" s="7"/>
+      <c r="N371" s="7"/>
+      <c r="O371" s="7"/>
+      <c r="P371" s="7"/>
+    </row>
+    <row r="372" ht="17.6" spans="9:16">
+      <c r="I372" s="7"/>
+      <c r="J372" s="7"/>
+      <c r="K372" s="7"/>
+      <c r="L372" s="7"/>
+      <c r="M372" s="7"/>
+      <c r="N372" s="7"/>
+      <c r="O372" s="7"/>
+      <c r="P372" s="7"/>
+    </row>
+    <row r="373" ht="17.6" spans="9:16">
+      <c r="I373" s="7"/>
+      <c r="J373" s="7"/>
+      <c r="K373" s="7"/>
+      <c r="L373" s="7"/>
+      <c r="M373" s="7"/>
+      <c r="N373" s="7"/>
+      <c r="O373" s="7"/>
+      <c r="P373" s="7"/>
+    </row>
+    <row r="374" ht="17.6" spans="9:16">
+      <c r="I374" s="7"/>
+      <c r="J374" s="7"/>
+      <c r="K374" s="7"/>
+      <c r="L374" s="7"/>
+      <c r="M374" s="7"/>
+      <c r="N374" s="7"/>
+      <c r="O374" s="7"/>
+      <c r="P374" s="7"/>
+    </row>
+    <row r="375" ht="17.6" spans="9:16">
+      <c r="I375" s="7"/>
+      <c r="J375" s="7"/>
+      <c r="K375" s="7"/>
+      <c r="L375" s="7"/>
+      <c r="M375" s="7"/>
+      <c r="N375" s="7"/>
+      <c r="O375" s="7"/>
+      <c r="P375" s="7"/>
+    </row>
+    <row r="376" ht="17.6" spans="9:16">
+      <c r="I376" s="7"/>
+      <c r="J376" s="7"/>
+      <c r="K376" s="7"/>
+      <c r="L376" s="7"/>
+      <c r="M376" s="7"/>
+      <c r="N376" s="7"/>
+      <c r="O376" s="7"/>
+      <c r="P376" s="7"/>
+    </row>
+    <row r="377" ht="17.6" spans="9:16">
+      <c r="I377" s="7"/>
+      <c r="J377" s="7"/>
+      <c r="K377" s="7"/>
+      <c r="L377" s="7"/>
+      <c r="M377" s="7"/>
+      <c r="N377" s="7"/>
+      <c r="O377" s="7"/>
+      <c r="P377" s="7"/>
+    </row>
+    <row r="378" ht="17.6" spans="9:16">
+      <c r="I378" s="7"/>
+      <c r="J378" s="7"/>
+      <c r="K378" s="7"/>
+      <c r="L378" s="7"/>
+      <c r="M378" s="7"/>
+      <c r="N378" s="7"/>
+      <c r="O378" s="7"/>
+      <c r="P378" s="7"/>
+    </row>
+    <row r="379" ht="17.6" spans="9:16">
+      <c r="I379" s="7"/>
+      <c r="J379" s="7"/>
+      <c r="K379" s="7"/>
+      <c r="L379" s="7"/>
+      <c r="M379" s="7"/>
+      <c r="N379" s="7"/>
+      <c r="O379" s="7"/>
+      <c r="P379" s="7"/>
+    </row>
+    <row r="380" ht="17.6" spans="9:16">
+      <c r="I380" s="7"/>
+      <c r="J380" s="7"/>
+      <c r="K380" s="7"/>
+      <c r="L380" s="7"/>
+      <c r="M380" s="7"/>
+      <c r="N380" s="7"/>
+      <c r="O380" s="7"/>
+      <c r="P380" s="7"/>
+    </row>
+    <row r="381" ht="17.6" spans="9:16">
+      <c r="I381" s="7"/>
+      <c r="J381" s="7"/>
+      <c r="K381" s="7"/>
+      <c r="L381" s="7"/>
+      <c r="M381" s="7"/>
+      <c r="N381" s="7"/>
+      <c r="O381" s="7"/>
+      <c r="P381" s="7"/>
+    </row>
+    <row r="382" ht="17.6" spans="9:16">
+      <c r="I382" s="7"/>
+      <c r="J382" s="7"/>
+      <c r="K382" s="7"/>
+      <c r="L382" s="7"/>
+      <c r="M382" s="7"/>
+      <c r="N382" s="7"/>
+      <c r="O382" s="7"/>
+      <c r="P382" s="7"/>
+    </row>
+    <row r="383" ht="17.6" spans="9:16">
+      <c r="I383" s="7"/>
+      <c r="J383" s="7"/>
+      <c r="K383" s="7"/>
+      <c r="L383" s="7"/>
+      <c r="M383" s="7"/>
+      <c r="N383" s="7"/>
+      <c r="O383" s="7"/>
+      <c r="P383" s="7"/>
+    </row>
+    <row r="384" ht="17.6" spans="9:16">
+      <c r="I384" s="7"/>
+      <c r="J384" s="7"/>
+      <c r="K384" s="7"/>
+      <c r="L384" s="7"/>
+      <c r="M384" s="7"/>
+      <c r="N384" s="7"/>
+      <c r="O384" s="7"/>
+      <c r="P384" s="7"/>
+    </row>
+    <row r="385" ht="17.6" spans="9:16">
+      <c r="I385" s="7"/>
+      <c r="J385" s="7"/>
+      <c r="K385" s="7"/>
+      <c r="L385" s="7"/>
+      <c r="M385" s="7"/>
+      <c r="N385" s="7"/>
+      <c r="O385" s="7"/>
+      <c r="P385" s="7"/>
+    </row>
+    <row r="386" ht="17.6" spans="9:16">
+      <c r="I386" s="7"/>
+      <c r="J386" s="7"/>
+      <c r="K386" s="7"/>
+      <c r="L386" s="7"/>
+      <c r="M386" s="7"/>
+      <c r="N386" s="7"/>
+      <c r="O386" s="7"/>
+      <c r="P386" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P56"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E43:E1048576" errorStyle="information"/>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12 G17 G27"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="E1 E57:E1048576" errorStyle="information"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G12 G27 G43"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
